--- a/InitNamespace.xlsx
+++ b/InitNamespace.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Android Projects\PSCR-Java-Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E7D658-439D-4316-AD39-1F652BFFF9C7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDD7164-11A0-41EA-9CCF-F8B8D0F99CC6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="30220" windowHeight="19620" xr2:uid="{9EDC7406-507F-4F35-8A40-23F4ADCD386A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="30220" windowHeight="19620" activeTab="2" xr2:uid="{9EDC7406-507F-4F35-8A40-23F4ADCD386A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Template Structural Collapse" sheetId="2" r:id="rId2"/>
+    <sheet name="Template Hurricane" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="99">
   <si>
     <t>NULL</t>
   </si>
@@ -320,6 +321,15 @@
   </si>
   <si>
     <t>Field Officer</t>
+  </si>
+  <si>
+    <t>Incident</t>
+  </si>
+  <si>
+    <t>Template t = new Template("Structural collapse", new Name(1), new Name(2), allnames, allRelationships);</t>
+  </si>
+  <si>
+    <t>new Template("Hurricane", new Name(1), new Name(2), allnames, allRelationships);</t>
   </si>
 </sst>
 </file>
@@ -673,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9918BF-54F4-45B7-BD12-482AEBC98410}">
   <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K60" sqref="K60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -745,27 +755,27 @@
         <v>967</v>
       </c>
       <c r="I2">
-        <f>MATCH(G2,$A$2:$A$53,0)</f>
+        <f t="shared" ref="I2:I33" si="0">MATCH(G2,$A$2:$A$53,0)</f>
         <v>1</v>
       </c>
       <c r="J2">
-        <f>MATCH(H2,$A$2:$A$53,0)</f>
+        <f t="shared" ref="J2:J33" si="1">MATCH(H2,$A$2:$A$53,0)</f>
         <v>4</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K31" ca="1" si="0">OFFSET($E$1,I2,0)</f>
+        <f t="shared" ref="K2:K31" ca="1" si="2">OFFSET($E$1,I2,0)</f>
         <v>-100</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2:L31" ca="1" si="1">OFFSET($E$1,J2,0)</f>
+        <f t="shared" ref="L2:L31" ca="1" si="3">OFFSET($E$1,J2,0)</f>
         <v>-103</v>
       </c>
       <c r="M2" t="str">
-        <f t="shared" ref="M2:M31" ca="1" si="2">OFFSET($B$1,I2,0)</f>
+        <f t="shared" ref="M2:M31" ca="1" si="4">OFFSET($B$1,I2,0)</f>
         <v>New Jersey</v>
       </c>
       <c r="N2" t="str">
-        <f t="shared" ref="N2:N31" ca="1" si="3">OFFSET($B$1,J2,0)</f>
+        <f t="shared" ref="N2:N31" ca="1" si="5">OFFSET($B$1,J2,0)</f>
         <v>Middlesex County</v>
       </c>
       <c r="O2" t="str">
@@ -805,35 +815,35 @@
         <v>968</v>
       </c>
       <c r="I3">
-        <f>MATCH(G3,$A$2:$A$53,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J3">
-        <f>MATCH(H3,$A$2:$A$53,0)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="K3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-100</v>
       </c>
       <c r="L3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-104</v>
       </c>
       <c r="M3" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>New Jersey</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>Union County</v>
       </c>
       <c r="O3" t="str">
-        <f t="shared" ref="O3:O27" si="4">"ret.add(new MessagingNamespace.MessagingName(new Name("&amp;E3&amp;"), """&amp;B3&amp;""", MessagingNamespace.MessagingNameType."&amp;IF(C3=0, "Administrative","Incident")&amp;"));"</f>
+        <f t="shared" ref="O3:O27" si="6">"ret.add(new MessagingNamespace.MessagingName(new Name("&amp;E3&amp;"), """&amp;B3&amp;""", MessagingNamespace.MessagingNameType."&amp;IF(C3=0, "Administrative","Incident")&amp;"));"</f>
         <v>ret.add(new MessagingNamespace.MessagingName(new Name(-101), "First Response", MessagingNamespace.MessagingNameType.Administrative));</v>
       </c>
       <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q60" ca="1" si="5">"ret.add(new Tuple2&lt;&gt;(new Name("&amp;K3&amp;"), new Name("&amp;L3&amp;")));"</f>
+        <f t="shared" ref="Q3:Q60" ca="1" si="7">"ret.add(new Tuple2&lt;&gt;(new Name("&amp;K3&amp;"), new Name("&amp;L3&amp;")));"</f>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-100), new Name(-104)));</v>
       </c>
     </row>
@@ -851,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E27" si="6">E3-1</f>
+        <f t="shared" ref="E4:E27" si="8">E3-1</f>
         <v>-102</v>
       </c>
       <c r="G4">
@@ -861,35 +871,35 @@
         <v>1697</v>
       </c>
       <c r="I4">
-        <f>MATCH(G4,$A$2:$A$53,0)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J4">
-        <f>MATCH(H4,$A$2:$A$53,0)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="K4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-101</v>
       </c>
       <c r="L4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-105</v>
       </c>
       <c r="M4" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>First Response</v>
       </c>
       <c r="N4" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>EMS</v>
       </c>
       <c r="O4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>ret.add(new MessagingNamespace.MessagingName(new Name(-102), "Incidents", MessagingNamespace.MessagingNameType.Incident));</v>
       </c>
       <c r="Q4" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-101), new Name(-105)));</v>
       </c>
     </row>
@@ -907,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-103</v>
       </c>
       <c r="G5">
@@ -917,35 +927,35 @@
         <v>1468</v>
       </c>
       <c r="I5">
-        <f>MATCH(G5,$A$2:$A$53,0)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J5">
-        <f>MATCH(H5,$A$2:$A$53,0)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-101</v>
       </c>
       <c r="L5">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-106</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>First Response</v>
       </c>
       <c r="N5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>Police</v>
       </c>
       <c r="O5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>ret.add(new MessagingNamespace.MessagingName(new Name(-103), "Middlesex County", MessagingNamespace.MessagingNameType.Administrative));</v>
       </c>
       <c r="Q5" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-101), new Name(-106)));</v>
       </c>
     </row>
@@ -963,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-104</v>
       </c>
       <c r="G6">
@@ -973,35 +983,35 @@
         <v>1467</v>
       </c>
       <c r="I6">
-        <f>MATCH(G6,$A$2:$A$53,0)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J6">
-        <f>MATCH(H6,$A$2:$A$53,0)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="K6">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-101</v>
       </c>
       <c r="L6">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-107</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>First Response</v>
       </c>
       <c r="N6" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>Fire</v>
       </c>
       <c r="O6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>ret.add(new MessagingNamespace.MessagingName(new Name(-104), "Union County", MessagingNamespace.MessagingNameType.Administrative));</v>
       </c>
       <c r="Q6" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-101), new Name(-107)));</v>
       </c>
     </row>
@@ -1019,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-105</v>
       </c>
       <c r="G7">
@@ -1029,35 +1039,35 @@
         <v>914</v>
       </c>
       <c r="I7">
-        <f>MATCH(G7,$A$2:$A$53,0)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J7">
-        <f>MATCH(H7,$A$2:$A$53,0)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="K7">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-101</v>
       </c>
       <c r="L7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-108</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>First Response</v>
       </c>
       <c r="N7" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>Dispatcher</v>
       </c>
       <c r="O7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>ret.add(new MessagingNamespace.MessagingName(new Name(-105), "EMS", MessagingNamespace.MessagingNameType.Administrative));</v>
       </c>
       <c r="Q7" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-101), new Name(-108)));</v>
       </c>
     </row>
@@ -1075,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-106</v>
       </c>
       <c r="G8">
@@ -1085,35 +1095,35 @@
         <v>913</v>
       </c>
       <c r="I8">
-        <f>MATCH(G8,$A$2:$A$53,0)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J8">
-        <f>MATCH(H8,$A$2:$A$53,0)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="K8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-101</v>
       </c>
       <c r="L8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-109</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>First Response</v>
       </c>
       <c r="N8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>Incident Commander</v>
       </c>
       <c r="O8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>ret.add(new MessagingNamespace.MessagingName(new Name(-106), "Police", MessagingNamespace.MessagingNameType.Administrative));</v>
       </c>
       <c r="Q8" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-101), new Name(-109)));</v>
       </c>
     </row>
@@ -1131,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-107</v>
       </c>
       <c r="G9">
@@ -1141,35 +1151,35 @@
         <v>969</v>
       </c>
       <c r="I9">
-        <f>MATCH(G9,$A$2:$A$53,0)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J9">
-        <f>MATCH(H9,$A$2:$A$53,0)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="K9">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-103</v>
       </c>
       <c r="L9">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-110</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>Middlesex County</v>
       </c>
       <c r="N9" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>Middlesex Fire</v>
       </c>
       <c r="O9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>ret.add(new MessagingNamespace.MessagingName(new Name(-107), "Fire", MessagingNamespace.MessagingNameType.Administrative));</v>
       </c>
       <c r="Q9" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-103), new Name(-110)));</v>
       </c>
     </row>
@@ -1187,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-108</v>
       </c>
       <c r="G10">
@@ -1197,35 +1207,35 @@
         <v>970</v>
       </c>
       <c r="I10">
-        <f>MATCH(G10,$A$2:$A$53,0)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J10">
-        <f>MATCH(H10,$A$2:$A$53,0)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="K10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-103</v>
       </c>
       <c r="L10">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-111</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>Middlesex County</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>Middlesex Police</v>
       </c>
       <c r="O10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>ret.add(new MessagingNamespace.MessagingName(new Name(-108), "Dispatcher", MessagingNamespace.MessagingNameType.Administrative));</v>
       </c>
       <c r="Q10" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-103), new Name(-111)));</v>
       </c>
     </row>
@@ -1243,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-109</v>
       </c>
       <c r="G11">
@@ -1253,35 +1263,35 @@
         <v>971</v>
       </c>
       <c r="I11">
-        <f>MATCH(G11,$A$2:$A$53,0)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J11">
-        <f>MATCH(H11,$A$2:$A$53,0)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="K11">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-103</v>
       </c>
       <c r="L11">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-112</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>Middlesex County</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>Middlesex EMS</v>
       </c>
       <c r="O11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>ret.add(new MessagingNamespace.MessagingName(new Name(-109), "Incident Commander", MessagingNamespace.MessagingNameType.Administrative));</v>
       </c>
       <c r="Q11" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-103), new Name(-112)));</v>
       </c>
     </row>
@@ -1299,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-110</v>
       </c>
       <c r="G12">
@@ -1309,35 +1319,35 @@
         <v>972</v>
       </c>
       <c r="I12">
-        <f>MATCH(G12,$A$2:$A$53,0)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="J12">
-        <f>MATCH(H12,$A$2:$A$53,0)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="K12">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-104</v>
       </c>
       <c r="L12">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-113</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>Union County</v>
       </c>
       <c r="N12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>Union Police</v>
       </c>
       <c r="O12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>ret.add(new MessagingNamespace.MessagingName(new Name(-110), "Middlesex Fire", MessagingNamespace.MessagingNameType.Administrative));</v>
       </c>
       <c r="Q12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-104), new Name(-113)));</v>
       </c>
     </row>
@@ -1355,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-111</v>
       </c>
       <c r="G13">
@@ -1365,35 +1375,35 @@
         <v>973</v>
       </c>
       <c r="I13">
-        <f>MATCH(G13,$A$2:$A$53,0)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="J13">
-        <f>MATCH(H13,$A$2:$A$53,0)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="K13">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-104</v>
       </c>
       <c r="L13">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-114</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>Union County</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>Union Fire</v>
       </c>
       <c r="O13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>ret.add(new MessagingNamespace.MessagingName(new Name(-111), "Middlesex Police", MessagingNamespace.MessagingNameType.Administrative));</v>
       </c>
       <c r="Q13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-104), new Name(-114)));</v>
       </c>
     </row>
@@ -1411,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-112</v>
       </c>
       <c r="G14">
@@ -1421,35 +1431,35 @@
         <v>971</v>
       </c>
       <c r="I14">
-        <f>MATCH(G14,$A$2:$A$53,0)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J14">
-        <f>MATCH(H14,$A$2:$A$53,0)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="K14">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-105</v>
       </c>
       <c r="L14">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-112</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>EMS</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>Middlesex EMS</v>
       </c>
       <c r="O14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>ret.add(new MessagingNamespace.MessagingName(new Name(-112), "Middlesex EMS", MessagingNamespace.MessagingNameType.Administrative));</v>
       </c>
       <c r="Q14" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-105), new Name(-112)));</v>
       </c>
     </row>
@@ -1467,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-113</v>
       </c>
       <c r="G15">
@@ -1477,35 +1487,35 @@
         <v>970</v>
       </c>
       <c r="I15">
-        <f>MATCH(G15,$A$2:$A$53,0)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="J15">
-        <f>MATCH(H15,$A$2:$A$53,0)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="K15">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-106</v>
       </c>
       <c r="L15">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-111</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>Police</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>Middlesex Police</v>
       </c>
       <c r="O15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>ret.add(new MessagingNamespace.MessagingName(new Name(-113), "Union Police", MessagingNamespace.MessagingNameType.Administrative));</v>
       </c>
       <c r="Q15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-106), new Name(-111)));</v>
       </c>
     </row>
@@ -1523,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-114</v>
       </c>
       <c r="G16">
@@ -1533,35 +1543,35 @@
         <v>972</v>
       </c>
       <c r="I16">
-        <f>MATCH(G16,$A$2:$A$53,0)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="J16">
-        <f>MATCH(H16,$A$2:$A$53,0)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="K16">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-106</v>
       </c>
       <c r="L16">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-113</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>Police</v>
       </c>
       <c r="N16" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>Union Police</v>
       </c>
       <c r="O16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>ret.add(new MessagingNamespace.MessagingName(new Name(-114), "Union Fire", MessagingNamespace.MessagingNameType.Administrative));</v>
       </c>
       <c r="Q16" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-106), new Name(-113)));</v>
       </c>
     </row>
@@ -1579,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-115</v>
       </c>
       <c r="G17">
@@ -1589,35 +1599,35 @@
         <v>969</v>
       </c>
       <c r="I17">
-        <f>MATCH(G17,$A$2:$A$53,0)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="J17">
-        <f>MATCH(H17,$A$2:$A$53,0)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="K17">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-107</v>
       </c>
       <c r="L17">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-110</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>Fire</v>
       </c>
       <c r="N17" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>Middlesex Fire</v>
       </c>
       <c r="O17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>ret.add(new MessagingNamespace.MessagingName(new Name(-115), "Avenel F.D.", MessagingNamespace.MessagingNameType.Administrative));</v>
       </c>
       <c r="Q17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-107), new Name(-110)));</v>
       </c>
     </row>
@@ -1635,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-116</v>
       </c>
       <c r="G18">
@@ -1645,35 +1655,35 @@
         <v>973</v>
       </c>
       <c r="I18">
-        <f>MATCH(G18,$A$2:$A$53,0)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="J18">
-        <f>MATCH(H18,$A$2:$A$53,0)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="K18">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-107</v>
       </c>
       <c r="L18">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-114</v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>Fire</v>
       </c>
       <c r="N18" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>Union Fire</v>
       </c>
       <c r="O18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>ret.add(new MessagingNamespace.MessagingName(new Name(-116), "Bridgewater Twp", MessagingNamespace.MessagingNameType.Administrative));</v>
       </c>
       <c r="Q18" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-107), new Name(-114)));</v>
       </c>
     </row>
@@ -1691,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-117</v>
       </c>
       <c r="G19">
@@ -1701,35 +1711,35 @@
         <v>977</v>
       </c>
       <c r="I19">
-        <f>MATCH(G19,$A$2:$A$53,0)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="J19">
-        <f>MATCH(H19,$A$2:$A$53,0)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="K19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-110</v>
       </c>
       <c r="L19">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-115</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>Middlesex Fire</v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>Avenel F.D.</v>
       </c>
       <c r="O19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>ret.add(new MessagingNamespace.MessagingName(new Name(-117), "Patrol Division", MessagingNamespace.MessagingNameType.Administrative));</v>
       </c>
       <c r="Q19" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-110), new Name(-115)));</v>
       </c>
     </row>
@@ -1747,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-118</v>
       </c>
       <c r="G20">
@@ -1757,35 +1767,35 @@
         <v>980</v>
       </c>
       <c r="I20">
-        <f>MATCH(G20,$A$2:$A$53,0)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="J20">
-        <f>MATCH(H20,$A$2:$A$53,0)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="K20">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-111</v>
       </c>
       <c r="L20">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-117</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>Middlesex Police</v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>Patrol Division</v>
       </c>
       <c r="O20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>ret.add(new MessagingNamespace.MessagingName(new Name(-118), "Rahway F.D.", MessagingNamespace.MessagingNameType.Administrative));</v>
       </c>
       <c r="Q20" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-111), new Name(-117)));</v>
       </c>
     </row>
@@ -1803,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-119</v>
       </c>
       <c r="G21">
@@ -1813,35 +1823,35 @@
         <v>964</v>
       </c>
       <c r="I21">
-        <f>MATCH(G21,$A$2:$A$53,0)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="J21">
-        <f>MATCH(H21,$A$2:$A$53,0)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="K21">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-112</v>
       </c>
       <c r="L21">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-116</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>Middlesex EMS</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>Bridgewater Twp</v>
       </c>
       <c r="O21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>ret.add(new MessagingNamespace.MessagingName(new Name(-119), "5-1 Pumper", MessagingNamespace.MessagingNameType.Administrative));</v>
       </c>
       <c r="Q21" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-112), new Name(-116)));</v>
       </c>
     </row>
@@ -1859,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-120</v>
       </c>
       <c r="G22">
@@ -1869,35 +1879,35 @@
         <v>974</v>
       </c>
       <c r="I22">
-        <f>MATCH(G22,$A$2:$A$53,0)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="J22">
-        <f>MATCH(H22,$A$2:$A$53,0)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="K22">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-114</v>
       </c>
       <c r="L22">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-118</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>Union Fire</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>Rahway F.D.</v>
       </c>
       <c r="O22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>ret.add(new MessagingNamespace.MessagingName(new Name(-120), "5-2 Rescue", MessagingNamespace.MessagingNameType.Administrative));</v>
       </c>
       <c r="Q22" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-114), new Name(-118)));</v>
       </c>
     </row>
@@ -1915,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-121</v>
       </c>
       <c r="G23">
@@ -1925,35 +1935,35 @@
         <v>1469</v>
       </c>
       <c r="I23">
-        <f>MATCH(G23,$A$2:$A$53,0)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="J23">
-        <f>MATCH(H23,$A$2:$A$53,0)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="K23">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-115</v>
       </c>
       <c r="L23">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-119</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>Avenel F.D.</v>
       </c>
       <c r="N23" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>5-1 Pumper</v>
       </c>
       <c r="O23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>ret.add(new MessagingNamespace.MessagingName(new Name(-121), "Ambulance 1", MessagingNamespace.MessagingNameType.Administrative));</v>
       </c>
       <c r="Q23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-115), new Name(-119)));</v>
       </c>
     </row>
@@ -1971,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-122</v>
       </c>
       <c r="G24">
@@ -1981,35 +1991,35 @@
         <v>1470</v>
       </c>
       <c r="I24">
-        <f>MATCH(G24,$A$2:$A$53,0)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="J24">
-        <f>MATCH(H24,$A$2:$A$53,0)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="K24">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-115</v>
       </c>
       <c r="L24">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-120</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>Avenel F.D.</v>
       </c>
       <c r="N24" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>5-2 Rescue</v>
       </c>
       <c r="O24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>ret.add(new MessagingNamespace.MessagingName(new Name(-122), "Ambulance 2", MessagingNamespace.MessagingNameType.Administrative));</v>
       </c>
       <c r="Q24" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-115), new Name(-120)));</v>
       </c>
     </row>
@@ -2027,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-123</v>
       </c>
       <c r="G25">
@@ -2037,35 +2047,35 @@
         <v>965</v>
       </c>
       <c r="I25">
-        <f>MATCH(G25,$A$2:$A$53,0)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="J25">
-        <f>MATCH(H25,$A$2:$A$53,0)</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="K25">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-116</v>
       </c>
       <c r="L25">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-121</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>Bridgewater Twp</v>
       </c>
       <c r="N25" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>Ambulance 1</v>
       </c>
       <c r="O25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>ret.add(new MessagingNamespace.MessagingName(new Name(-123), "Patrol Car", MessagingNamespace.MessagingNameType.Administrative));</v>
       </c>
       <c r="Q25" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-116), new Name(-121)));</v>
       </c>
     </row>
@@ -2083,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-124</v>
       </c>
       <c r="G26">
@@ -2093,35 +2103,35 @@
         <v>1700</v>
       </c>
       <c r="I26">
-        <f>MATCH(G26,$A$2:$A$53,0)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="J26">
-        <f>MATCH(H26,$A$2:$A$53,0)</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="K26">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-116</v>
       </c>
       <c r="L26">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-122</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>Bridgewater Twp</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>Ambulance 2</v>
       </c>
       <c r="O26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>ret.add(new MessagingNamespace.MessagingName(new Name(-124), "TAC1", MessagingNamespace.MessagingNameType.Administrative));</v>
       </c>
       <c r="Q26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-116), new Name(-122)));</v>
       </c>
     </row>
@@ -2139,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-125</v>
       </c>
       <c r="G27">
@@ -2149,35 +2159,35 @@
         <v>963</v>
       </c>
       <c r="I27">
-        <f>MATCH(G27,$A$2:$A$53,0)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="J27">
-        <f>MATCH(H27,$A$2:$A$53,0)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="K27">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-117</v>
       </c>
       <c r="L27">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-123</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>Patrol Division</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>Patrol Car</v>
       </c>
       <c r="O27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>ret.add(new MessagingNamespace.MessagingName(new Name(-125), "Rescue 1", MessagingNamespace.MessagingNameType.Administrative));</v>
       </c>
       <c r="Q27" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-117), new Name(-123)));</v>
       </c>
     </row>
@@ -2204,27 +2214,27 @@
         <v>976</v>
       </c>
       <c r="I28">
-        <f>MATCH(G28,$A$2:$A$53,0)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="J28">
-        <f>MATCH(H28,$A$2:$A$53,0)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="K28">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-118</v>
       </c>
       <c r="L28">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-124</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>Rahway F.D.</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>TAC1</v>
       </c>
       <c r="O28" t="str">
@@ -2232,7 +2242,7 @@
         <v>ret.add(new MessagingNamespace.MessagingName(new Name(-200), "Irma", MessagingNamespace.MessagingNameType.Incident));</v>
       </c>
       <c r="Q28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-118), new Name(-124)));</v>
       </c>
     </row>
@@ -2259,27 +2269,27 @@
         <v>975</v>
       </c>
       <c r="I29">
-        <f>MATCH(G29,$A$2:$A$53,0)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="J29">
-        <f>MATCH(H29,$A$2:$A$53,0)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="K29">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-118</v>
       </c>
       <c r="L29">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-125</v>
       </c>
       <c r="M29" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>Rahway F.D.</v>
       </c>
       <c r="N29" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>Rescue 1</v>
       </c>
       <c r="O29" t="str">
@@ -2287,7 +2297,7 @@
         <v>ret.add(new MessagingNamespace.MessagingName(new Name(-201), "Task Force Leaders", MessagingNamespace.MessagingNameType.Incident));</v>
       </c>
       <c r="Q29" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-118), new Name(-125)));</v>
       </c>
     </row>
@@ -2305,7 +2315,7 @@
         <v>26</v>
       </c>
       <c r="E30">
-        <f>E29-1</f>
+        <f t="shared" ref="E30:E53" si="9">E29-1</f>
         <v>-201</v>
       </c>
       <c r="G30">
@@ -2315,27 +2325,27 @@
         <v>1702</v>
       </c>
       <c r="I30">
-        <f>MATCH(G30,$A$2:$A$53,0)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="J30">
-        <f>MATCH(H30,$A$2:$A$53,0)</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="K30">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-117</v>
       </c>
       <c r="L30">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-126</v>
       </c>
       <c r="M30" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>Patrol Division</v>
       </c>
       <c r="N30" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>Field Officer</v>
       </c>
       <c r="O30" t="str">
@@ -2343,7 +2353,7 @@
         <v>ret.add(new MessagingNamespace.MessagingName(new Name(-202), "Safety Officers", MessagingNamespace.MessagingNameType.Incident));</v>
       </c>
       <c r="Q30" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-117), new Name(-126)));</v>
       </c>
     </row>
@@ -2361,7 +2371,7 @@
         <v>26</v>
       </c>
       <c r="E31">
-        <f>E30-1</f>
+        <f t="shared" si="9"/>
         <v>-202</v>
       </c>
       <c r="G31">
@@ -2371,35 +2381,35 @@
         <v>1159</v>
       </c>
       <c r="I31">
-        <f>MATCH(G31,$A$2:$A$53,0)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J31">
-        <f>MATCH(H31,$A$2:$A$53,0)</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="K31">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>-102</v>
       </c>
       <c r="L31">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-200</v>
       </c>
       <c r="M31" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>Incidents</v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>Irma</v>
       </c>
       <c r="O31" t="str">
-        <f>"ret.add(new MessagingNamespace.MessagingName(new Name("&amp;E31&amp;"), """&amp;B31&amp;""", MessagingNamespace.MessagingNameType."&amp;IF(C31=0, "Administrative","Incident")&amp;"));"</f>
+        <f t="shared" ref="O31:O53" si="10">"ret.add(new MessagingNamespace.MessagingName(new Name("&amp;E31&amp;"), """&amp;B31&amp;""", MessagingNamespace.MessagingNameType."&amp;IF(C31=0, "Administrative","Incident")&amp;"));"</f>
         <v>ret.add(new MessagingNamespace.MessagingName(new Name(-202), "Safety Officers", MessagingNamespace.MessagingNameType.Incident));</v>
       </c>
       <c r="Q31" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-102), new Name(-200)));</v>
       </c>
     </row>
@@ -2417,7 +2427,7 @@
         <v>26</v>
       </c>
       <c r="E32">
-        <f>E31-1</f>
+        <f t="shared" si="9"/>
         <v>-203</v>
       </c>
       <c r="G32">
@@ -2427,35 +2437,35 @@
         <v>1160</v>
       </c>
       <c r="I32">
-        <f>MATCH(G32,$A$2:$A$53,0)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="J32">
-        <f>MATCH(H32,$A$2:$A$53,0)</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="K32">
-        <f t="shared" ref="K32:K60" ca="1" si="7">OFFSET($E$1,I32,0)</f>
+        <f t="shared" ref="K32:K60" ca="1" si="11">OFFSET($E$1,I32,0)</f>
         <v>-200</v>
       </c>
       <c r="L32">
-        <f t="shared" ref="L32:L60" ca="1" si="8">OFFSET($E$1,J32,0)</f>
+        <f t="shared" ref="L32:L60" ca="1" si="12">OFFSET($E$1,J32,0)</f>
         <v>-201</v>
       </c>
       <c r="M32" t="str">
-        <f t="shared" ref="M32:M60" ca="1" si="9">OFFSET($B$1,I32,0)</f>
+        <f t="shared" ref="M32:M60" ca="1" si="13">OFFSET($B$1,I32,0)</f>
         <v>Irma</v>
       </c>
       <c r="N32" t="str">
-        <f t="shared" ref="N32:N60" ca="1" si="10">OFFSET($B$1,J32,0)</f>
+        <f t="shared" ref="N32:N60" ca="1" si="14">OFFSET($B$1,J32,0)</f>
         <v>Task Force Leaders</v>
       </c>
       <c r="O32" t="str">
-        <f>"ret.add(new MessagingNamespace.MessagingName(new Name("&amp;E32&amp;"), """&amp;B32&amp;""", MessagingNamespace.MessagingNameType."&amp;IF(C32=0, "Administrative","Incident")&amp;"));"</f>
+        <f t="shared" si="10"/>
         <v>ret.add(new MessagingNamespace.MessagingName(new Name(-203), "Search Team", MessagingNamespace.MessagingNameType.Incident));</v>
       </c>
       <c r="Q32" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-200), new Name(-201)));</v>
       </c>
     </row>
@@ -2473,7 +2483,7 @@
         <v>26</v>
       </c>
       <c r="E33">
-        <f>E32-1</f>
+        <f t="shared" si="9"/>
         <v>-204</v>
       </c>
       <c r="G33">
@@ -2483,35 +2493,35 @@
         <v>1161</v>
       </c>
       <c r="I33">
-        <f>MATCH(G33,$A$2:$A$53,0)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="J33">
-        <f>MATCH(H33,$A$2:$A$53,0)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="K33">
+        <f t="shared" ca="1" si="11"/>
+        <v>-200</v>
+      </c>
+      <c r="L33">
+        <f t="shared" ca="1" si="12"/>
+        <v>-202</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Irma</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>Safety Officers</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="10"/>
+        <v>ret.add(new MessagingNamespace.MessagingName(new Name(-204), "Search Team Managers", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q33" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>-200</v>
-      </c>
-      <c r="L33">
-        <f t="shared" ca="1" si="8"/>
-        <v>-202</v>
-      </c>
-      <c r="M33" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Irma</v>
-      </c>
-      <c r="N33" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Safety Officers</v>
-      </c>
-      <c r="O33" t="str">
-        <f>"ret.add(new MessagingNamespace.MessagingName(new Name("&amp;E33&amp;"), """&amp;B33&amp;""", MessagingNamespace.MessagingNameType."&amp;IF(C33=0, "Administrative","Incident")&amp;"));"</f>
-        <v>ret.add(new MessagingNamespace.MessagingName(new Name(-204), "Search Team Managers", MessagingNamespace.MessagingNameType.Incident));</v>
-      </c>
-      <c r="Q33" t="str">
-        <f t="shared" ca="1" si="5"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-200), new Name(-202)));</v>
       </c>
     </row>
@@ -2529,7 +2539,7 @@
         <v>26</v>
       </c>
       <c r="E34">
-        <f>E33-1</f>
+        <f t="shared" si="9"/>
         <v>-205</v>
       </c>
       <c r="G34">
@@ -2539,35 +2549,35 @@
         <v>1162</v>
       </c>
       <c r="I34">
-        <f>MATCH(G34,$A$2:$A$53,0)</f>
+        <f t="shared" ref="I34:I60" si="15">MATCH(G34,$A$2:$A$53,0)</f>
         <v>28</v>
       </c>
       <c r="J34">
-        <f>MATCH(H34,$A$2:$A$53,0)</f>
+        <f t="shared" ref="J34:J60" si="16">MATCH(H34,$A$2:$A$53,0)</f>
         <v>31</v>
       </c>
       <c r="K34">
+        <f t="shared" ca="1" si="11"/>
+        <v>-200</v>
+      </c>
+      <c r="L34">
+        <f t="shared" ca="1" si="12"/>
+        <v>-203</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Irma</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>Search Team</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="10"/>
+        <v>ret.add(new MessagingNamespace.MessagingName(new Name(-205), "Canine Search Specialist", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q34" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>-200</v>
-      </c>
-      <c r="L34">
-        <f t="shared" ca="1" si="8"/>
-        <v>-203</v>
-      </c>
-      <c r="M34" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Irma</v>
-      </c>
-      <c r="N34" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Search Team</v>
-      </c>
-      <c r="O34" t="str">
-        <f>"ret.add(new MessagingNamespace.MessagingName(new Name("&amp;E34&amp;"), """&amp;B34&amp;""", MessagingNamespace.MessagingNameType."&amp;IF(C34=0, "Administrative","Incident")&amp;"));"</f>
-        <v>ret.add(new MessagingNamespace.MessagingName(new Name(-205), "Canine Search Specialist", MessagingNamespace.MessagingNameType.Incident));</v>
-      </c>
-      <c r="Q34" t="str">
-        <f t="shared" ca="1" si="5"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-200), new Name(-203)));</v>
       </c>
     </row>
@@ -2585,7 +2595,7 @@
         <v>26</v>
       </c>
       <c r="E35">
-        <f>E34-1</f>
+        <f t="shared" si="9"/>
         <v>-206</v>
       </c>
       <c r="G35">
@@ -2595,35 +2605,35 @@
         <v>1166</v>
       </c>
       <c r="I35">
-        <f>MATCH(G35,$A$2:$A$53,0)</f>
+        <f t="shared" si="15"/>
         <v>28</v>
       </c>
       <c r="J35">
-        <f>MATCH(H35,$A$2:$A$53,0)</f>
+        <f t="shared" si="16"/>
         <v>35</v>
       </c>
       <c r="K35">
+        <f t="shared" ca="1" si="11"/>
+        <v>-200</v>
+      </c>
+      <c r="L35">
+        <f t="shared" ca="1" si="12"/>
+        <v>-207</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Irma</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>Rescue Teams</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" si="10"/>
+        <v>ret.add(new MessagingNamespace.MessagingName(new Name(-206), "Technical Search Specialist", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q35" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>-200</v>
-      </c>
-      <c r="L35">
-        <f t="shared" ca="1" si="8"/>
-        <v>-207</v>
-      </c>
-      <c r="M35" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Irma</v>
-      </c>
-      <c r="N35" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Rescue Teams</v>
-      </c>
-      <c r="O35" t="str">
-        <f>"ret.add(new MessagingNamespace.MessagingName(new Name("&amp;E35&amp;"), """&amp;B35&amp;""", MessagingNamespace.MessagingNameType."&amp;IF(C35=0, "Administrative","Incident")&amp;"));"</f>
-        <v>ret.add(new MessagingNamespace.MessagingName(new Name(-206), "Technical Search Specialist", MessagingNamespace.MessagingNameType.Incident));</v>
-      </c>
-      <c r="Q35" t="str">
-        <f t="shared" ca="1" si="5"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-200), new Name(-207)));</v>
       </c>
     </row>
@@ -2641,7 +2651,7 @@
         <v>26</v>
       </c>
       <c r="E36">
-        <f>E35-1</f>
+        <f t="shared" si="9"/>
         <v>-207</v>
       </c>
       <c r="G36">
@@ -2651,35 +2661,35 @@
         <v>1174</v>
       </c>
       <c r="I36">
-        <f>MATCH(G36,$A$2:$A$53,0)</f>
+        <f t="shared" si="15"/>
         <v>28</v>
       </c>
       <c r="J36">
-        <f>MATCH(H36,$A$2:$A$53,0)</f>
+        <f t="shared" si="16"/>
         <v>43</v>
       </c>
       <c r="K36">
+        <f t="shared" ca="1" si="11"/>
+        <v>-200</v>
+      </c>
+      <c r="L36">
+        <f t="shared" ca="1" si="12"/>
+        <v>-215</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Irma</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>Haz Mat Team</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="10"/>
+        <v>ret.add(new MessagingNamespace.MessagingName(new Name(-207), "Rescue Teams", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q36" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>-200</v>
-      </c>
-      <c r="L36">
-        <f t="shared" ca="1" si="8"/>
-        <v>-215</v>
-      </c>
-      <c r="M36" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Irma</v>
-      </c>
-      <c r="N36" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Haz Mat Team</v>
-      </c>
-      <c r="O36" t="str">
-        <f>"ret.add(new MessagingNamespace.MessagingName(new Name("&amp;E36&amp;"), """&amp;B36&amp;""", MessagingNamespace.MessagingNameType."&amp;IF(C36=0, "Administrative","Incident")&amp;"));"</f>
-        <v>ret.add(new MessagingNamespace.MessagingName(new Name(-207), "Rescue Teams", MessagingNamespace.MessagingNameType.Incident));</v>
-      </c>
-      <c r="Q36" t="str">
-        <f t="shared" ca="1" si="5"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-200), new Name(-215)));</v>
       </c>
     </row>
@@ -2697,7 +2707,7 @@
         <v>26</v>
       </c>
       <c r="E37">
-        <f>E36-1</f>
+        <f t="shared" si="9"/>
         <v>-208</v>
       </c>
       <c r="G37">
@@ -2707,35 +2717,35 @@
         <v>1178</v>
       </c>
       <c r="I37">
-        <f>MATCH(G37,$A$2:$A$53,0)</f>
+        <f t="shared" si="15"/>
         <v>28</v>
       </c>
       <c r="J37">
-        <f>MATCH(H37,$A$2:$A$53,0)</f>
+        <f t="shared" si="16"/>
         <v>47</v>
       </c>
       <c r="K37">
+        <f t="shared" ca="1" si="11"/>
+        <v>-200</v>
+      </c>
+      <c r="L37">
+        <f t="shared" ca="1" si="12"/>
+        <v>-219</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Irma</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>Medical Team</v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="10"/>
+        <v>ret.add(new MessagingNamespace.MessagingName(new Name(-208), "Rescue Team Managers", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q37" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>-200</v>
-      </c>
-      <c r="L37">
-        <f t="shared" ca="1" si="8"/>
-        <v>-219</v>
-      </c>
-      <c r="M37" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Irma</v>
-      </c>
-      <c r="N37" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Medical Team</v>
-      </c>
-      <c r="O37" t="str">
-        <f>"ret.add(new MessagingNamespace.MessagingName(new Name("&amp;E37&amp;"), """&amp;B37&amp;""", MessagingNamespace.MessagingNameType."&amp;IF(C37=0, "Administrative","Incident")&amp;"));"</f>
-        <v>ret.add(new MessagingNamespace.MessagingName(new Name(-208), "Rescue Team Managers", MessagingNamespace.MessagingNameType.Incident));</v>
-      </c>
-      <c r="Q37" t="str">
-        <f t="shared" ca="1" si="5"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-200), new Name(-219)));</v>
       </c>
     </row>
@@ -2753,7 +2763,7 @@
         <v>26</v>
       </c>
       <c r="E38">
-        <f>E37-1</f>
+        <f t="shared" si="9"/>
         <v>-209</v>
       </c>
       <c r="G38">
@@ -2763,35 +2773,35 @@
         <v>1181</v>
       </c>
       <c r="I38">
-        <f>MATCH(G38,$A$2:$A$53,0)</f>
+        <f t="shared" si="15"/>
         <v>28</v>
       </c>
       <c r="J38">
-        <f>MATCH(H38,$A$2:$A$53,0)</f>
+        <f t="shared" si="16"/>
         <v>50</v>
       </c>
       <c r="K38">
+        <f t="shared" ca="1" si="11"/>
+        <v>-200</v>
+      </c>
+      <c r="L38">
+        <f t="shared" ca="1" si="12"/>
+        <v>-222</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Irma</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>Logistic Team</v>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" si="10"/>
+        <v>ret.add(new MessagingNamespace.MessagingName(new Name(-209), "Rescue Squad 1", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q38" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>-200</v>
-      </c>
-      <c r="L38">
-        <f t="shared" ca="1" si="8"/>
-        <v>-222</v>
-      </c>
-      <c r="M38" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Irma</v>
-      </c>
-      <c r="N38" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Logistic Team</v>
-      </c>
-      <c r="O38" t="str">
-        <f>"ret.add(new MessagingNamespace.MessagingName(new Name("&amp;E38&amp;"), """&amp;B38&amp;""", MessagingNamespace.MessagingNameType."&amp;IF(C38=0, "Administrative","Incident")&amp;"));"</f>
-        <v>ret.add(new MessagingNamespace.MessagingName(new Name(-209), "Rescue Squad 1", MessagingNamespace.MessagingNameType.Incident));</v>
-      </c>
-      <c r="Q38" t="str">
-        <f t="shared" ca="1" si="5"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-200), new Name(-222)));</v>
       </c>
     </row>
@@ -2809,7 +2819,7 @@
         <v>26</v>
       </c>
       <c r="E39">
-        <f>E38-1</f>
+        <f t="shared" si="9"/>
         <v>-210</v>
       </c>
       <c r="G39">
@@ -2819,35 +2829,35 @@
         <v>1163</v>
       </c>
       <c r="I39">
-        <f>MATCH(G39,$A$2:$A$53,0)</f>
+        <f t="shared" si="15"/>
         <v>31</v>
       </c>
       <c r="J39">
-        <f>MATCH(H39,$A$2:$A$53,0)</f>
+        <f t="shared" si="16"/>
         <v>32</v>
       </c>
       <c r="K39">
+        <f t="shared" ca="1" si="11"/>
+        <v>-203</v>
+      </c>
+      <c r="L39">
+        <f t="shared" ca="1" si="12"/>
+        <v>-204</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Search Team</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>Search Team Managers</v>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" si="10"/>
+        <v>ret.add(new MessagingNamespace.MessagingName(new Name(-210), "Rescue Squad 2", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q39" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>-203</v>
-      </c>
-      <c r="L39">
-        <f t="shared" ca="1" si="8"/>
-        <v>-204</v>
-      </c>
-      <c r="M39" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Search Team</v>
-      </c>
-      <c r="N39" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Search Team Managers</v>
-      </c>
-      <c r="O39" t="str">
-        <f>"ret.add(new MessagingNamespace.MessagingName(new Name("&amp;E39&amp;"), """&amp;B39&amp;""", MessagingNamespace.MessagingNameType."&amp;IF(C39=0, "Administrative","Incident")&amp;"));"</f>
-        <v>ret.add(new MessagingNamespace.MessagingName(new Name(-210), "Rescue Squad 2", MessagingNamespace.MessagingNameType.Incident));</v>
-      </c>
-      <c r="Q39" t="str">
-        <f t="shared" ca="1" si="5"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-203), new Name(-204)));</v>
       </c>
     </row>
@@ -2865,7 +2875,7 @@
         <v>26</v>
       </c>
       <c r="E40">
-        <f>E39-1</f>
+        <f t="shared" si="9"/>
         <v>-211</v>
       </c>
       <c r="G40">
@@ -2875,35 +2885,35 @@
         <v>1164</v>
       </c>
       <c r="I40">
-        <f>MATCH(G40,$A$2:$A$53,0)</f>
+        <f t="shared" si="15"/>
         <v>31</v>
       </c>
       <c r="J40">
-        <f>MATCH(H40,$A$2:$A$53,0)</f>
+        <f t="shared" si="16"/>
         <v>33</v>
       </c>
       <c r="K40">
+        <f t="shared" ca="1" si="11"/>
+        <v>-203</v>
+      </c>
+      <c r="L40">
+        <f t="shared" ca="1" si="12"/>
+        <v>-205</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Search Team</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>Canine Search Specialist</v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="10"/>
+        <v>ret.add(new MessagingNamespace.MessagingName(new Name(-211), "Rescue Squad 1 Officer", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q40" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>-203</v>
-      </c>
-      <c r="L40">
-        <f t="shared" ca="1" si="8"/>
-        <v>-205</v>
-      </c>
-      <c r="M40" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Search Team</v>
-      </c>
-      <c r="N40" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Canine Search Specialist</v>
-      </c>
-      <c r="O40" t="str">
-        <f>"ret.add(new MessagingNamespace.MessagingName(new Name("&amp;E40&amp;"), """&amp;B40&amp;""", MessagingNamespace.MessagingNameType."&amp;IF(C40=0, "Administrative","Incident")&amp;"));"</f>
-        <v>ret.add(new MessagingNamespace.MessagingName(new Name(-211), "Rescue Squad 1 Officer", MessagingNamespace.MessagingNameType.Incident));</v>
-      </c>
-      <c r="Q40" t="str">
-        <f t="shared" ca="1" si="5"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-203), new Name(-205)));</v>
       </c>
     </row>
@@ -2921,7 +2931,7 @@
         <v>26</v>
       </c>
       <c r="E41">
-        <f>E40-1</f>
+        <f t="shared" si="9"/>
         <v>-212</v>
       </c>
       <c r="G41">
@@ -2931,35 +2941,35 @@
         <v>1165</v>
       </c>
       <c r="I41">
-        <f>MATCH(G41,$A$2:$A$53,0)</f>
+        <f t="shared" si="15"/>
         <v>31</v>
       </c>
       <c r="J41">
-        <f>MATCH(H41,$A$2:$A$53,0)</f>
+        <f t="shared" si="16"/>
         <v>34</v>
       </c>
       <c r="K41">
+        <f t="shared" ca="1" si="11"/>
+        <v>-203</v>
+      </c>
+      <c r="L41">
+        <f t="shared" ca="1" si="12"/>
+        <v>-206</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Search Team</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>Technical Search Specialist</v>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" si="10"/>
+        <v>ret.add(new MessagingNamespace.MessagingName(new Name(-212), "Rescue Squad 2 Officer", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q41" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>-203</v>
-      </c>
-      <c r="L41">
-        <f t="shared" ca="1" si="8"/>
-        <v>-206</v>
-      </c>
-      <c r="M41" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Search Team</v>
-      </c>
-      <c r="N41" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Technical Search Specialist</v>
-      </c>
-      <c r="O41" t="str">
-        <f>"ret.add(new MessagingNamespace.MessagingName(new Name("&amp;E41&amp;"), """&amp;B41&amp;""", MessagingNamespace.MessagingNameType."&amp;IF(C41=0, "Administrative","Incident")&amp;"));"</f>
-        <v>ret.add(new MessagingNamespace.MessagingName(new Name(-212), "Rescue Squad 2 Officer", MessagingNamespace.MessagingNameType.Incident));</v>
-      </c>
-      <c r="Q41" t="str">
-        <f t="shared" ca="1" si="5"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-203), new Name(-206)));</v>
       </c>
     </row>
@@ -2977,7 +2987,7 @@
         <v>26</v>
       </c>
       <c r="E42">
-        <f>E41-1</f>
+        <f t="shared" si="9"/>
         <v>-213</v>
       </c>
       <c r="G42">
@@ -2987,35 +2997,35 @@
         <v>1167</v>
       </c>
       <c r="I42">
-        <f>MATCH(G42,$A$2:$A$53,0)</f>
+        <f t="shared" si="15"/>
         <v>35</v>
       </c>
       <c r="J42">
-        <f>MATCH(H42,$A$2:$A$53,0)</f>
+        <f t="shared" si="16"/>
         <v>36</v>
       </c>
       <c r="K42">
+        <f t="shared" ca="1" si="11"/>
+        <v>-207</v>
+      </c>
+      <c r="L42">
+        <f t="shared" ca="1" si="12"/>
+        <v>-208</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Rescue Teams</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>Rescue Team Managers</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="10"/>
+        <v>ret.add(new MessagingNamespace.MessagingName(new Name(-213), "Rescue Squad 2 Specialists", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q42" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>-207</v>
-      </c>
-      <c r="L42">
-        <f t="shared" ca="1" si="8"/>
-        <v>-208</v>
-      </c>
-      <c r="M42" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Rescue Teams</v>
-      </c>
-      <c r="N42" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Rescue Team Managers</v>
-      </c>
-      <c r="O42" t="str">
-        <f>"ret.add(new MessagingNamespace.MessagingName(new Name("&amp;E42&amp;"), """&amp;B42&amp;""", MessagingNamespace.MessagingNameType."&amp;IF(C42=0, "Administrative","Incident")&amp;"));"</f>
-        <v>ret.add(new MessagingNamespace.MessagingName(new Name(-213), "Rescue Squad 2 Specialists", MessagingNamespace.MessagingNameType.Incident));</v>
-      </c>
-      <c r="Q42" t="str">
-        <f t="shared" ca="1" si="5"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-207), new Name(-208)));</v>
       </c>
     </row>
@@ -3033,7 +3043,7 @@
         <v>26</v>
       </c>
       <c r="E43">
-        <f>E42-1</f>
+        <f t="shared" si="9"/>
         <v>-214</v>
       </c>
       <c r="G43">
@@ -3043,35 +3053,35 @@
         <v>1168</v>
       </c>
       <c r="I43">
-        <f>MATCH(G43,$A$2:$A$53,0)</f>
+        <f t="shared" si="15"/>
         <v>35</v>
       </c>
       <c r="J43">
-        <f>MATCH(H43,$A$2:$A$53,0)</f>
+        <f t="shared" si="16"/>
         <v>37</v>
       </c>
       <c r="K43">
+        <f t="shared" ca="1" si="11"/>
+        <v>-207</v>
+      </c>
+      <c r="L43">
+        <f t="shared" ca="1" si="12"/>
+        <v>-209</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Rescue Teams</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>Rescue Squad 1</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="10"/>
+        <v>ret.add(new MessagingNamespace.MessagingName(new Name(-214), "Rescue Squad 1 Specialists", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q43" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>-207</v>
-      </c>
-      <c r="L43">
-        <f t="shared" ca="1" si="8"/>
-        <v>-209</v>
-      </c>
-      <c r="M43" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Rescue Teams</v>
-      </c>
-      <c r="N43" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Rescue Squad 1</v>
-      </c>
-      <c r="O43" t="str">
-        <f>"ret.add(new MessagingNamespace.MessagingName(new Name("&amp;E43&amp;"), """&amp;B43&amp;""", MessagingNamespace.MessagingNameType."&amp;IF(C43=0, "Administrative","Incident")&amp;"));"</f>
-        <v>ret.add(new MessagingNamespace.MessagingName(new Name(-214), "Rescue Squad 1 Specialists", MessagingNamespace.MessagingNameType.Incident));</v>
-      </c>
-      <c r="Q43" t="str">
-        <f t="shared" ca="1" si="5"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-207), new Name(-209)));</v>
       </c>
     </row>
@@ -3089,7 +3099,7 @@
         <v>26</v>
       </c>
       <c r="E44">
-        <f>E43-1</f>
+        <f t="shared" si="9"/>
         <v>-215</v>
       </c>
       <c r="G44">
@@ -3099,35 +3109,35 @@
         <v>1169</v>
       </c>
       <c r="I44">
-        <f>MATCH(G44,$A$2:$A$53,0)</f>
+        <f t="shared" si="15"/>
         <v>35</v>
       </c>
       <c r="J44">
-        <f>MATCH(H44,$A$2:$A$53,0)</f>
+        <f t="shared" si="16"/>
         <v>38</v>
       </c>
       <c r="K44">
+        <f t="shared" ca="1" si="11"/>
+        <v>-207</v>
+      </c>
+      <c r="L44">
+        <f t="shared" ca="1" si="12"/>
+        <v>-210</v>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Rescue Teams</v>
+      </c>
+      <c r="N44" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>Rescue Squad 2</v>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="10"/>
+        <v>ret.add(new MessagingNamespace.MessagingName(new Name(-215), "Haz Mat Team", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q44" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>-207</v>
-      </c>
-      <c r="L44">
-        <f t="shared" ca="1" si="8"/>
-        <v>-210</v>
-      </c>
-      <c r="M44" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Rescue Teams</v>
-      </c>
-      <c r="N44" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Rescue Squad 2</v>
-      </c>
-      <c r="O44" t="str">
-        <f>"ret.add(new MessagingNamespace.MessagingName(new Name("&amp;E44&amp;"), """&amp;B44&amp;""", MessagingNamespace.MessagingNameType."&amp;IF(C44=0, "Administrative","Incident")&amp;"));"</f>
-        <v>ret.add(new MessagingNamespace.MessagingName(new Name(-215), "Haz Mat Team", MessagingNamespace.MessagingNameType.Incident));</v>
-      </c>
-      <c r="Q44" t="str">
-        <f t="shared" ca="1" si="5"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-207), new Name(-210)));</v>
       </c>
     </row>
@@ -3145,7 +3155,7 @@
         <v>26</v>
       </c>
       <c r="E45">
-        <f>E44-1</f>
+        <f t="shared" si="9"/>
         <v>-216</v>
       </c>
       <c r="G45">
@@ -3155,35 +3165,35 @@
         <v>1170</v>
       </c>
       <c r="I45">
-        <f>MATCH(G45,$A$2:$A$53,0)</f>
+        <f t="shared" si="15"/>
         <v>37</v>
       </c>
       <c r="J45">
-        <f>MATCH(H45,$A$2:$A$53,0)</f>
+        <f t="shared" si="16"/>
         <v>39</v>
       </c>
       <c r="K45">
+        <f t="shared" ca="1" si="11"/>
+        <v>-209</v>
+      </c>
+      <c r="L45">
+        <f t="shared" ca="1" si="12"/>
+        <v>-211</v>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Rescue Squad 1</v>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>Rescue Squad 1 Officer</v>
+      </c>
+      <c r="O45" t="str">
+        <f t="shared" si="10"/>
+        <v>ret.add(new MessagingNamespace.MessagingName(new Name(-216), "Haz Mat Managers", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q45" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>-209</v>
-      </c>
-      <c r="L45">
-        <f t="shared" ca="1" si="8"/>
-        <v>-211</v>
-      </c>
-      <c r="M45" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Rescue Squad 1</v>
-      </c>
-      <c r="N45" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Rescue Squad 1 Officer</v>
-      </c>
-      <c r="O45" t="str">
-        <f>"ret.add(new MessagingNamespace.MessagingName(new Name("&amp;E45&amp;"), """&amp;B45&amp;""", MessagingNamespace.MessagingNameType."&amp;IF(C45=0, "Administrative","Incident")&amp;"));"</f>
-        <v>ret.add(new MessagingNamespace.MessagingName(new Name(-216), "Haz Mat Managers", MessagingNamespace.MessagingNameType.Incident));</v>
-      </c>
-      <c r="Q45" t="str">
-        <f t="shared" ca="1" si="5"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-209), new Name(-211)));</v>
       </c>
     </row>
@@ -3201,7 +3211,7 @@
         <v>26</v>
       </c>
       <c r="E46">
-        <f>E45-1</f>
+        <f t="shared" si="9"/>
         <v>-217</v>
       </c>
       <c r="G46">
@@ -3211,35 +3221,35 @@
         <v>1173</v>
       </c>
       <c r="I46">
-        <f>MATCH(G46,$A$2:$A$53,0)</f>
+        <f t="shared" si="15"/>
         <v>37</v>
       </c>
       <c r="J46">
-        <f>MATCH(H46,$A$2:$A$53,0)</f>
+        <f t="shared" si="16"/>
         <v>42</v>
       </c>
       <c r="K46">
+        <f t="shared" ca="1" si="11"/>
+        <v>-209</v>
+      </c>
+      <c r="L46">
+        <f t="shared" ca="1" si="12"/>
+        <v>-214</v>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Rescue Squad 1</v>
+      </c>
+      <c r="N46" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>Rescue Squad 1 Specialists</v>
+      </c>
+      <c r="O46" t="str">
+        <f t="shared" si="10"/>
+        <v>ret.add(new MessagingNamespace.MessagingName(new Name(-217), "Haz Mat Specialists", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q46" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>-209</v>
-      </c>
-      <c r="L46">
-        <f t="shared" ca="1" si="8"/>
-        <v>-214</v>
-      </c>
-      <c r="M46" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Rescue Squad 1</v>
-      </c>
-      <c r="N46" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Rescue Squad 1 Specialists</v>
-      </c>
-      <c r="O46" t="str">
-        <f>"ret.add(new MessagingNamespace.MessagingName(new Name("&amp;E46&amp;"), """&amp;B46&amp;""", MessagingNamespace.MessagingNameType."&amp;IF(C46=0, "Administrative","Incident")&amp;"));"</f>
-        <v>ret.add(new MessagingNamespace.MessagingName(new Name(-217), "Haz Mat Specialists", MessagingNamespace.MessagingNameType.Incident));</v>
-      </c>
-      <c r="Q46" t="str">
-        <f t="shared" ca="1" si="5"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-209), new Name(-214)));</v>
       </c>
     </row>
@@ -3257,7 +3267,7 @@
         <v>26</v>
       </c>
       <c r="E47">
-        <f>E46-1</f>
+        <f t="shared" si="9"/>
         <v>-218</v>
       </c>
       <c r="G47">
@@ -3267,35 +3277,35 @@
         <v>1171</v>
       </c>
       <c r="I47">
-        <f>MATCH(G47,$A$2:$A$53,0)</f>
+        <f t="shared" si="15"/>
         <v>38</v>
       </c>
       <c r="J47">
-        <f>MATCH(H47,$A$2:$A$53,0)</f>
+        <f t="shared" si="16"/>
         <v>40</v>
       </c>
       <c r="K47">
+        <f t="shared" ca="1" si="11"/>
+        <v>-210</v>
+      </c>
+      <c r="L47">
+        <f t="shared" ca="1" si="12"/>
+        <v>-212</v>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Rescue Squad 2</v>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>Rescue Squad 2 Officer</v>
+      </c>
+      <c r="O47" t="str">
+        <f t="shared" si="10"/>
+        <v>ret.add(new MessagingNamespace.MessagingName(new Name(-218), "Heavy Equipment Rigging Specialists", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q47" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>-210</v>
-      </c>
-      <c r="L47">
-        <f t="shared" ca="1" si="8"/>
-        <v>-212</v>
-      </c>
-      <c r="M47" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Rescue Squad 2</v>
-      </c>
-      <c r="N47" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Rescue Squad 2 Officer</v>
-      </c>
-      <c r="O47" t="str">
-        <f>"ret.add(new MessagingNamespace.MessagingName(new Name("&amp;E47&amp;"), """&amp;B47&amp;""", MessagingNamespace.MessagingNameType."&amp;IF(C47=0, "Administrative","Incident")&amp;"));"</f>
-        <v>ret.add(new MessagingNamespace.MessagingName(new Name(-218), "Heavy Equipment Rigging Specialists", MessagingNamespace.MessagingNameType.Incident));</v>
-      </c>
-      <c r="Q47" t="str">
-        <f t="shared" ca="1" si="5"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-210), new Name(-212)));</v>
       </c>
     </row>
@@ -3313,7 +3323,7 @@
         <v>26</v>
       </c>
       <c r="E48">
-        <f>E47-1</f>
+        <f t="shared" si="9"/>
         <v>-219</v>
       </c>
       <c r="G48">
@@ -3323,35 +3333,35 @@
         <v>1172</v>
       </c>
       <c r="I48">
-        <f>MATCH(G48,$A$2:$A$53,0)</f>
+        <f t="shared" si="15"/>
         <v>38</v>
       </c>
       <c r="J48">
-        <f>MATCH(H48,$A$2:$A$53,0)</f>
+        <f t="shared" si="16"/>
         <v>41</v>
       </c>
       <c r="K48">
+        <f t="shared" ca="1" si="11"/>
+        <v>-210</v>
+      </c>
+      <c r="L48">
+        <f t="shared" ca="1" si="12"/>
+        <v>-213</v>
+      </c>
+      <c r="M48" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Rescue Squad 2</v>
+      </c>
+      <c r="N48" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>Rescue Squad 2 Specialists</v>
+      </c>
+      <c r="O48" t="str">
+        <f t="shared" si="10"/>
+        <v>ret.add(new MessagingNamespace.MessagingName(new Name(-219), "Medical Team", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q48" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>-210</v>
-      </c>
-      <c r="L48">
-        <f t="shared" ca="1" si="8"/>
-        <v>-213</v>
-      </c>
-      <c r="M48" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Rescue Squad 2</v>
-      </c>
-      <c r="N48" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Rescue Squad 2 Specialists</v>
-      </c>
-      <c r="O48" t="str">
-        <f>"ret.add(new MessagingNamespace.MessagingName(new Name("&amp;E48&amp;"), """&amp;B48&amp;""", MessagingNamespace.MessagingNameType."&amp;IF(C48=0, "Administrative","Incident")&amp;"));"</f>
-        <v>ret.add(new MessagingNamespace.MessagingName(new Name(-219), "Medical Team", MessagingNamespace.MessagingNameType.Incident));</v>
-      </c>
-      <c r="Q48" t="str">
-        <f t="shared" ca="1" si="5"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-210), new Name(-213)));</v>
       </c>
     </row>
@@ -3369,7 +3379,7 @@
         <v>26</v>
       </c>
       <c r="E49">
-        <f>E48-1</f>
+        <f t="shared" si="9"/>
         <v>-220</v>
       </c>
       <c r="G49">
@@ -3379,35 +3389,35 @@
         <v>1175</v>
       </c>
       <c r="I49">
-        <f>MATCH(G49,$A$2:$A$53,0)</f>
+        <f t="shared" si="15"/>
         <v>43</v>
       </c>
       <c r="J49">
-        <f>MATCH(H49,$A$2:$A$53,0)</f>
+        <f t="shared" si="16"/>
         <v>44</v>
       </c>
       <c r="K49">
+        <f t="shared" ca="1" si="11"/>
+        <v>-215</v>
+      </c>
+      <c r="L49">
+        <f t="shared" ca="1" si="12"/>
+        <v>-216</v>
+      </c>
+      <c r="M49" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Haz Mat Team</v>
+      </c>
+      <c r="N49" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>Haz Mat Managers</v>
+      </c>
+      <c r="O49" t="str">
+        <f t="shared" si="10"/>
+        <v>ret.add(new MessagingNamespace.MessagingName(new Name(-220), "Medical Managers", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q49" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>-215</v>
-      </c>
-      <c r="L49">
-        <f t="shared" ca="1" si="8"/>
-        <v>-216</v>
-      </c>
-      <c r="M49" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Haz Mat Team</v>
-      </c>
-      <c r="N49" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Haz Mat Managers</v>
-      </c>
-      <c r="O49" t="str">
-        <f>"ret.add(new MessagingNamespace.MessagingName(new Name("&amp;E49&amp;"), """&amp;B49&amp;""", MessagingNamespace.MessagingNameType."&amp;IF(C49=0, "Administrative","Incident")&amp;"));"</f>
-        <v>ret.add(new MessagingNamespace.MessagingName(new Name(-220), "Medical Managers", MessagingNamespace.MessagingNameType.Incident));</v>
-      </c>
-      <c r="Q49" t="str">
-        <f t="shared" ca="1" si="5"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-215), new Name(-216)));</v>
       </c>
     </row>
@@ -3425,7 +3435,7 @@
         <v>26</v>
       </c>
       <c r="E50">
-        <f>E49-1</f>
+        <f t="shared" si="9"/>
         <v>-221</v>
       </c>
       <c r="G50">
@@ -3435,35 +3445,35 @@
         <v>1176</v>
       </c>
       <c r="I50">
-        <f>MATCH(G50,$A$2:$A$53,0)</f>
+        <f t="shared" si="15"/>
         <v>43</v>
       </c>
       <c r="J50">
-        <f>MATCH(H50,$A$2:$A$53,0)</f>
+        <f t="shared" si="16"/>
         <v>45</v>
       </c>
       <c r="K50">
+        <f t="shared" ca="1" si="11"/>
+        <v>-215</v>
+      </c>
+      <c r="L50">
+        <f t="shared" ca="1" si="12"/>
+        <v>-217</v>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Haz Mat Team</v>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>Haz Mat Specialists</v>
+      </c>
+      <c r="O50" t="str">
+        <f t="shared" si="10"/>
+        <v>ret.add(new MessagingNamespace.MessagingName(new Name(-221), "Medical Specialists", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q50" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>-215</v>
-      </c>
-      <c r="L50">
-        <f t="shared" ca="1" si="8"/>
-        <v>-217</v>
-      </c>
-      <c r="M50" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Haz Mat Team</v>
-      </c>
-      <c r="N50" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Haz Mat Specialists</v>
-      </c>
-      <c r="O50" t="str">
-        <f>"ret.add(new MessagingNamespace.MessagingName(new Name("&amp;E50&amp;"), """&amp;B50&amp;""", MessagingNamespace.MessagingNameType."&amp;IF(C50=0, "Administrative","Incident")&amp;"));"</f>
-        <v>ret.add(new MessagingNamespace.MessagingName(new Name(-221), "Medical Specialists", MessagingNamespace.MessagingNameType.Incident));</v>
-      </c>
-      <c r="Q50" t="str">
-        <f t="shared" ca="1" si="5"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-215), new Name(-217)));</v>
       </c>
     </row>
@@ -3481,7 +3491,7 @@
         <v>26</v>
       </c>
       <c r="E51">
-        <f>E50-1</f>
+        <f t="shared" si="9"/>
         <v>-222</v>
       </c>
       <c r="G51">
@@ -3491,35 +3501,35 @@
         <v>1177</v>
       </c>
       <c r="I51">
-        <f>MATCH(G51,$A$2:$A$53,0)</f>
+        <f t="shared" si="15"/>
         <v>43</v>
       </c>
       <c r="J51">
-        <f>MATCH(H51,$A$2:$A$53,0)</f>
+        <f t="shared" si="16"/>
         <v>46</v>
       </c>
       <c r="K51">
+        <f t="shared" ca="1" si="11"/>
+        <v>-215</v>
+      </c>
+      <c r="L51">
+        <f t="shared" ca="1" si="12"/>
+        <v>-218</v>
+      </c>
+      <c r="M51" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Haz Mat Team</v>
+      </c>
+      <c r="N51" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>Heavy Equipment Rigging Specialists</v>
+      </c>
+      <c r="O51" t="str">
+        <f t="shared" si="10"/>
+        <v>ret.add(new MessagingNamespace.MessagingName(new Name(-222), "Logistic Team", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q51" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>-215</v>
-      </c>
-      <c r="L51">
-        <f t="shared" ca="1" si="8"/>
-        <v>-218</v>
-      </c>
-      <c r="M51" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Haz Mat Team</v>
-      </c>
-      <c r="N51" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Heavy Equipment Rigging Specialists</v>
-      </c>
-      <c r="O51" t="str">
-        <f>"ret.add(new MessagingNamespace.MessagingName(new Name("&amp;E51&amp;"), """&amp;B51&amp;""", MessagingNamespace.MessagingNameType."&amp;IF(C51=0, "Administrative","Incident")&amp;"));"</f>
-        <v>ret.add(new MessagingNamespace.MessagingName(new Name(-222), "Logistic Team", MessagingNamespace.MessagingNameType.Incident));</v>
-      </c>
-      <c r="Q51" t="str">
-        <f t="shared" ca="1" si="5"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-215), new Name(-218)));</v>
       </c>
     </row>
@@ -3537,7 +3547,7 @@
         <v>26</v>
       </c>
       <c r="E52">
-        <f>E51-1</f>
+        <f t="shared" si="9"/>
         <v>-223</v>
       </c>
       <c r="G52">
@@ -3547,35 +3557,35 @@
         <v>1179</v>
       </c>
       <c r="I52">
-        <f>MATCH(G52,$A$2:$A$53,0)</f>
+        <f t="shared" si="15"/>
         <v>47</v>
       </c>
       <c r="J52">
-        <f>MATCH(H52,$A$2:$A$53,0)</f>
+        <f t="shared" si="16"/>
         <v>48</v>
       </c>
       <c r="K52">
+        <f t="shared" ca="1" si="11"/>
+        <v>-219</v>
+      </c>
+      <c r="L52">
+        <f t="shared" ca="1" si="12"/>
+        <v>-220</v>
+      </c>
+      <c r="M52" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Medical Team</v>
+      </c>
+      <c r="N52" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>Medical Managers</v>
+      </c>
+      <c r="O52" t="str">
+        <f t="shared" si="10"/>
+        <v>ret.add(new MessagingNamespace.MessagingName(new Name(-223), "Logistic Team Managers", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q52" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>-219</v>
-      </c>
-      <c r="L52">
-        <f t="shared" ca="1" si="8"/>
-        <v>-220</v>
-      </c>
-      <c r="M52" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Medical Team</v>
-      </c>
-      <c r="N52" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Medical Managers</v>
-      </c>
-      <c r="O52" t="str">
-        <f>"ret.add(new MessagingNamespace.MessagingName(new Name("&amp;E52&amp;"), """&amp;B52&amp;""", MessagingNamespace.MessagingNameType."&amp;IF(C52=0, "Administrative","Incident")&amp;"));"</f>
-        <v>ret.add(new MessagingNamespace.MessagingName(new Name(-223), "Logistic Team Managers", MessagingNamespace.MessagingNameType.Incident));</v>
-      </c>
-      <c r="Q52" t="str">
-        <f t="shared" ca="1" si="5"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-219), new Name(-220)));</v>
       </c>
     </row>
@@ -3593,7 +3603,7 @@
         <v>26</v>
       </c>
       <c r="E53">
-        <f>E52-1</f>
+        <f t="shared" si="9"/>
         <v>-224</v>
       </c>
       <c r="G53">
@@ -3603,35 +3613,35 @@
         <v>1180</v>
       </c>
       <c r="I53">
-        <f>MATCH(G53,$A$2:$A$53,0)</f>
+        <f t="shared" si="15"/>
         <v>47</v>
       </c>
       <c r="J53">
-        <f>MATCH(H53,$A$2:$A$53,0)</f>
+        <f t="shared" si="16"/>
         <v>49</v>
       </c>
       <c r="K53">
+        <f t="shared" ca="1" si="11"/>
+        <v>-219</v>
+      </c>
+      <c r="L53">
+        <f t="shared" ca="1" si="12"/>
+        <v>-221</v>
+      </c>
+      <c r="M53" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Medical Team</v>
+      </c>
+      <c r="N53" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>Medical Specialists</v>
+      </c>
+      <c r="O53" t="str">
+        <f t="shared" si="10"/>
+        <v>ret.add(new MessagingNamespace.MessagingName(new Name(-224), "Logistic Team Specialists", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q53" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>-219</v>
-      </c>
-      <c r="L53">
-        <f t="shared" ca="1" si="8"/>
-        <v>-221</v>
-      </c>
-      <c r="M53" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Medical Team</v>
-      </c>
-      <c r="N53" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Medical Specialists</v>
-      </c>
-      <c r="O53" t="str">
-        <f>"ret.add(new MessagingNamespace.MessagingName(new Name("&amp;E53&amp;"), """&amp;B53&amp;""", MessagingNamespace.MessagingNameType."&amp;IF(C53=0, "Administrative","Incident")&amp;"));"</f>
-        <v>ret.add(new MessagingNamespace.MessagingName(new Name(-224), "Logistic Team Specialists", MessagingNamespace.MessagingNameType.Incident));</v>
-      </c>
-      <c r="Q53" t="str">
-        <f t="shared" ca="1" si="5"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-219), new Name(-221)));</v>
       </c>
     </row>
@@ -3643,31 +3653,31 @@
         <v>1182</v>
       </c>
       <c r="I54">
-        <f>MATCH(G54,$A$2:$A$53,0)</f>
+        <f t="shared" si="15"/>
         <v>50</v>
       </c>
       <c r="J54">
-        <f>MATCH(H54,$A$2:$A$53,0)</f>
+        <f t="shared" si="16"/>
         <v>51</v>
       </c>
       <c r="K54">
+        <f t="shared" ca="1" si="11"/>
+        <v>-222</v>
+      </c>
+      <c r="L54">
+        <f t="shared" ca="1" si="12"/>
+        <v>-223</v>
+      </c>
+      <c r="M54" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Logistic Team</v>
+      </c>
+      <c r="N54" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>Logistic Team Managers</v>
+      </c>
+      <c r="Q54" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>-222</v>
-      </c>
-      <c r="L54">
-        <f t="shared" ca="1" si="8"/>
-        <v>-223</v>
-      </c>
-      <c r="M54" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Logistic Team</v>
-      </c>
-      <c r="N54" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Logistic Team Managers</v>
-      </c>
-      <c r="Q54" t="str">
-        <f t="shared" ca="1" si="5"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-222), new Name(-223)));</v>
       </c>
     </row>
@@ -3679,31 +3689,31 @@
         <v>1183</v>
       </c>
       <c r="I55">
-        <f>MATCH(G55,$A$2:$A$53,0)</f>
+        <f t="shared" si="15"/>
         <v>50</v>
       </c>
       <c r="J55">
-        <f>MATCH(H55,$A$2:$A$53,0)</f>
+        <f t="shared" si="16"/>
         <v>52</v>
       </c>
       <c r="K55">
+        <f t="shared" ca="1" si="11"/>
+        <v>-222</v>
+      </c>
+      <c r="L55">
+        <f t="shared" ca="1" si="12"/>
+        <v>-224</v>
+      </c>
+      <c r="M55" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Logistic Team</v>
+      </c>
+      <c r="N55" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>Logistic Team Specialists</v>
+      </c>
+      <c r="Q55" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>-222</v>
-      </c>
-      <c r="L55">
-        <f t="shared" ca="1" si="8"/>
-        <v>-224</v>
-      </c>
-      <c r="M55" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Logistic Team</v>
-      </c>
-      <c r="N55" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Logistic Team Specialists</v>
-      </c>
-      <c r="Q55" t="str">
-        <f t="shared" ca="1" si="5"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-222), new Name(-224)));</v>
       </c>
     </row>
@@ -3715,31 +3725,31 @@
         <v>913</v>
       </c>
       <c r="I56">
-        <f>MATCH(G56,$A$2:$A$53,0)</f>
+        <f t="shared" si="15"/>
         <v>29</v>
       </c>
       <c r="J56">
-        <f>MATCH(H56,$A$2:$A$53,0)</f>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="K56">
+        <f t="shared" ca="1" si="11"/>
+        <v>-201</v>
+      </c>
+      <c r="L56">
+        <f t="shared" ca="1" si="12"/>
+        <v>-109</v>
+      </c>
+      <c r="M56" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Task Force Leaders</v>
+      </c>
+      <c r="N56" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>Incident Commander</v>
+      </c>
+      <c r="Q56" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>-201</v>
-      </c>
-      <c r="L56">
-        <f t="shared" ca="1" si="8"/>
-        <v>-109</v>
-      </c>
-      <c r="M56" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Task Force Leaders</v>
-      </c>
-      <c r="N56" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Incident Commander</v>
-      </c>
-      <c r="Q56" t="str">
-        <f t="shared" ca="1" si="5"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-201), new Name(-109)));</v>
       </c>
     </row>
@@ -3751,31 +3761,31 @@
         <v>964</v>
       </c>
       <c r="I57">
-        <f>MATCH(G57,$A$2:$A$53,0)</f>
+        <f t="shared" si="15"/>
         <v>49</v>
       </c>
       <c r="J57">
-        <f>MATCH(H57,$A$2:$A$53,0)</f>
+        <f t="shared" si="16"/>
         <v>17</v>
       </c>
       <c r="K57">
+        <f t="shared" ca="1" si="11"/>
+        <v>-221</v>
+      </c>
+      <c r="L57">
+        <f t="shared" ca="1" si="12"/>
+        <v>-116</v>
+      </c>
+      <c r="M57" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Medical Specialists</v>
+      </c>
+      <c r="N57" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>Bridgewater Twp</v>
+      </c>
+      <c r="Q57" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>-221</v>
-      </c>
-      <c r="L57">
-        <f t="shared" ca="1" si="8"/>
-        <v>-116</v>
-      </c>
-      <c r="M57" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Medical Specialists</v>
-      </c>
-      <c r="N57" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Bridgewater Twp</v>
-      </c>
-      <c r="Q57" t="str">
-        <f t="shared" ca="1" si="5"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-221), new Name(-116)));</v>
       </c>
     </row>
@@ -3787,31 +3797,31 @@
         <v>963</v>
       </c>
       <c r="I58">
-        <f>MATCH(G58,$A$2:$A$53,0)</f>
+        <f t="shared" si="15"/>
         <v>39</v>
       </c>
       <c r="J58">
-        <f>MATCH(H58,$A$2:$A$53,0)</f>
+        <f t="shared" si="16"/>
         <v>24</v>
       </c>
       <c r="K58">
+        <f t="shared" ca="1" si="11"/>
+        <v>-211</v>
+      </c>
+      <c r="L58">
+        <f t="shared" ca="1" si="12"/>
+        <v>-123</v>
+      </c>
+      <c r="M58" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Rescue Squad 1 Officer</v>
+      </c>
+      <c r="N58" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>Patrol Car</v>
+      </c>
+      <c r="Q58" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>-211</v>
-      </c>
-      <c r="L58">
-        <f t="shared" ca="1" si="8"/>
-        <v>-123</v>
-      </c>
-      <c r="M58" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Rescue Squad 1 Officer</v>
-      </c>
-      <c r="N58" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>Patrol Car</v>
-      </c>
-      <c r="Q58" t="str">
-        <f t="shared" ca="1" si="5"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-211), new Name(-123)));</v>
       </c>
     </row>
@@ -3823,31 +3833,31 @@
         <v>1469</v>
       </c>
       <c r="I59">
-        <f>MATCH(G59,$A$2:$A$53,0)</f>
+        <f t="shared" si="15"/>
         <v>42</v>
       </c>
       <c r="J59">
-        <f>MATCH(H59,$A$2:$A$53,0)</f>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="K59">
+        <f t="shared" ca="1" si="11"/>
+        <v>-214</v>
+      </c>
+      <c r="L59">
+        <f t="shared" ca="1" si="12"/>
+        <v>-119</v>
+      </c>
+      <c r="M59" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Rescue Squad 1 Specialists</v>
+      </c>
+      <c r="N59" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>5-1 Pumper</v>
+      </c>
+      <c r="Q59" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>-214</v>
-      </c>
-      <c r="L59">
-        <f t="shared" ca="1" si="8"/>
-        <v>-119</v>
-      </c>
-      <c r="M59" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Rescue Squad 1 Specialists</v>
-      </c>
-      <c r="N59" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>5-1 Pumper</v>
-      </c>
-      <c r="Q59" t="str">
-        <f t="shared" ca="1" si="5"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-214), new Name(-119)));</v>
       </c>
     </row>
@@ -3859,31 +3869,31 @@
         <v>1470</v>
       </c>
       <c r="I60">
-        <f>MATCH(G60,$A$2:$A$53,0)</f>
+        <f t="shared" si="15"/>
         <v>42</v>
       </c>
       <c r="J60">
-        <f>MATCH(H60,$A$2:$A$53,0)</f>
+        <f t="shared" si="16"/>
         <v>21</v>
       </c>
       <c r="K60">
+        <f t="shared" ca="1" si="11"/>
+        <v>-214</v>
+      </c>
+      <c r="L60">
+        <f t="shared" ca="1" si="12"/>
+        <v>-120</v>
+      </c>
+      <c r="M60" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Rescue Squad 1 Specialists</v>
+      </c>
+      <c r="N60" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>5-2 Rescue</v>
+      </c>
+      <c r="Q60" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>-214</v>
-      </c>
-      <c r="L60">
-        <f t="shared" ca="1" si="8"/>
-        <v>-120</v>
-      </c>
-      <c r="M60" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>Rescue Squad 1 Specialists</v>
-      </c>
-      <c r="N60" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>5-2 Rescue</v>
-      </c>
-      <c r="Q60" t="str">
-        <f t="shared" ca="1" si="5"/>
         <v>ret.add(new Tuple2&lt;&gt;(new Name(-214), new Name(-120)));</v>
       </c>
     </row>
@@ -3899,40 +3909,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05B5E9C-64C2-4290-8708-9489D097FCF1}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D34"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="1.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>1007</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>37</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1008</v>
-      </c>
-      <c r="B2" t="s">
-        <v>38</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3940,13 +3975,54 @@
       <c r="D2">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1007</v>
+      </c>
+      <c r="H2">
+        <v>1008</v>
+      </c>
+      <c r="I2">
+        <f>MATCH(G2,$A$2:$A$60,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <f>MATCH(H2,$A$2:$A$60,0)</f>
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:K44" ca="1" si="0">OFFSET($E$1,I2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:L44" ca="1" si="1">OFFSET($E$1,J2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="M2" t="str">
+        <f t="shared" ref="M2:M44" ca="1" si="2">OFFSET($B$1,I2,0)</f>
+        <v>Structural collapse</v>
+      </c>
+      <c r="N2" t="str">
+        <f t="shared" ref="N2:N44" ca="1" si="3">OFFSET($B$1,J2,0)</f>
+        <v>Task force leader</v>
+      </c>
+      <c r="O2" t="str">
+        <f>"allnames.add(new MessagingNamespace.MessagingName(new Name("&amp;E2&amp;"), """&amp;B2&amp;""", MessagingNamespace.MessagingNameType."&amp;IF(C2=0, "Administrative","Incident")&amp;"));"</f>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(1), "Structural collapse", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q2" t="str">
+        <f ca="1">"allRelationships.add(new Tuple2&lt;&gt;(new Name("&amp;K2&amp;"), new Name("&amp;L2&amp;")));"</f>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(1), new Name(2)));</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -3954,13 +4030,55 @@
       <c r="D3">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <f t="shared" ref="E3:E60" si="4">E2+1</f>
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>1007</v>
+      </c>
+      <c r="H3">
+        <v>1009</v>
+      </c>
+      <c r="I3">
+        <f>MATCH(G3,$A$2:$A$60,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <f>MATCH(H3,$A$2:$A$60,0)</f>
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Structural collapse</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Safety officer</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" ref="O3:O60" si="5">"allnames.add(new MessagingNamespace.MessagingName(new Name("&amp;E3&amp;"), """&amp;B3&amp;""", MessagingNamespace.MessagingNameType."&amp;IF(C3=0, "Administrative","Incident")&amp;"));"</f>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(2), "Task force leader", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q58" ca="1" si="6">"allRelationships.add(new Tuple2&lt;&gt;(new Name("&amp;K3&amp;"), new Name("&amp;L3&amp;")));"</f>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(1), new Name(3)));</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -3968,13 +4086,55 @@
       <c r="D4">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>1007</v>
+      </c>
+      <c r="H4">
+        <v>1010</v>
+      </c>
+      <c r="I4">
+        <f>MATCH(G4,$A$2:$A$60,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <f>MATCH(H4,$A$2:$A$60,0)</f>
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Structural collapse</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Plans officer</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="5"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(3), "Safety officer", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(1), new Name(4)));</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -3982,13 +4142,55 @@
       <c r="D5">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>1007</v>
+      </c>
+      <c r="H5">
+        <v>1011</v>
+      </c>
+      <c r="I5">
+        <f>MATCH(G5,$A$2:$A$60,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <f>MATCH(H5,$A$2:$A$60,0)</f>
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Structural collapse</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Search team</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="5"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(4), "Plans officer", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(1), new Name(5)));</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -3996,13 +4198,55 @@
       <c r="D6">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>1007</v>
+      </c>
+      <c r="H6">
+        <v>1016</v>
+      </c>
+      <c r="I6">
+        <f>MATCH(G6,$A$2:$A$60,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <f>MATCH(H6,$A$2:$A$60,0)</f>
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Structural collapse</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Rescue team</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="5"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(5), "Search team", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(1), new Name(10)));</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -4010,13 +4254,55 @@
       <c r="D7">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>1007</v>
+      </c>
+      <c r="H7">
+        <v>1030</v>
+      </c>
+      <c r="I7">
+        <f>MATCH(G7,$A$2:$A$60,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <f>MATCH(H7,$A$2:$A$60,0)</f>
+        <v>24</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ca="1" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Structural collapse</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Medical team</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="5"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(6), "Search team manager", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(1), new Name(24)));</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -4024,13 +4310,55 @@
       <c r="D8">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>1007</v>
+      </c>
+      <c r="H8">
+        <v>1034</v>
+      </c>
+      <c r="I8">
+        <f>MATCH(G8,$A$2:$A$60,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <f>MATCH(H8,$A$2:$A$60,0)</f>
+        <v>28</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ca="1" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Structural collapse</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Technical team</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="5"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(7), "Canine search specialist T1", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(1), new Name(28)));</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -4038,13 +4366,55 @@
       <c r="D9">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>1011</v>
+      </c>
+      <c r="H9">
+        <v>1012</v>
+      </c>
+      <c r="I9">
+        <f>MATCH(G9,$A$2:$A$60,0)</f>
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <f>MATCH(H9,$A$2:$A$60,0)</f>
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Search team</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Search team manager</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="5"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(8), "Canine search specialist T2", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(5), new Name(6)));</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -4052,13 +4422,55 @@
       <c r="D10">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>1011</v>
+      </c>
+      <c r="H10">
+        <v>1013</v>
+      </c>
+      <c r="I10">
+        <f>MATCH(G10,$A$2:$A$60,0)</f>
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <f>MATCH(H10,$A$2:$A$60,0)</f>
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Search team</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Canine search specialist T1</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="5"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(9), "Technical search specialists", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(5), new Name(7)));</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -4066,13 +4478,55 @@
       <c r="D11">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>1011</v>
+      </c>
+      <c r="H11">
+        <v>1014</v>
+      </c>
+      <c r="I11">
+        <f>MATCH(G11,$A$2:$A$60,0)</f>
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <f>MATCH(H11,$A$2:$A$60,0)</f>
+        <v>8</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Search team</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Canine search specialist T2</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="5"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(10), "Rescue team", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(5), new Name(8)));</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -4080,13 +4534,55 @@
       <c r="D12">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>1011</v>
+      </c>
+      <c r="H12">
+        <v>1015</v>
+      </c>
+      <c r="I12">
+        <f>MATCH(G12,$A$2:$A$60,0)</f>
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <f>MATCH(H12,$A$2:$A$60,0)</f>
+        <v>9</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Search team</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Technical search specialists</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="5"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(11), "Rescue team manager", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(5), new Name(9)));</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -4094,13 +4590,55 @@
       <c r="D13">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>1016</v>
+      </c>
+      <c r="H13">
+        <v>1017</v>
+      </c>
+      <c r="I13">
+        <f>MATCH(G13,$A$2:$A$60,0)</f>
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <f>MATCH(H13,$A$2:$A$60,0)</f>
+        <v>11</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Rescue team</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Rescue team manager</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="5"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(12), "Rescue squad 1", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(10), new Name(11)));</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -4108,13 +4646,55 @@
       <c r="D14">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <v>1016</v>
+      </c>
+      <c r="H14">
+        <v>1018</v>
+      </c>
+      <c r="I14">
+        <f>MATCH(G14,$A$2:$A$60,0)</f>
+        <v>10</v>
+      </c>
+      <c r="J14">
+        <f>MATCH(H14,$A$2:$A$60,0)</f>
+        <v>12</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Rescue team</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Rescue squad 1</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="5"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(13), "Rescue squad 2", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(10), new Name(12)));</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -4122,13 +4702,55 @@
       <c r="D15">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="G15">
+        <v>1016</v>
+      </c>
+      <c r="H15">
+        <v>1019</v>
+      </c>
+      <c r="I15">
+        <f>MATCH(G15,$A$2:$A$60,0)</f>
+        <v>10</v>
+      </c>
+      <c r="J15">
+        <f>MATCH(H15,$A$2:$A$60,0)</f>
+        <v>13</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L15">
+        <f t="shared" ca="1" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Rescue team</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Rescue squad 2</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="5"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(14), "Rescue squad 3", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(10), new Name(13)));</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -4136,13 +4758,55 @@
       <c r="D16">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <v>1016</v>
+      </c>
+      <c r="H16">
+        <v>1020</v>
+      </c>
+      <c r="I16">
+        <f>MATCH(G16,$A$2:$A$60,0)</f>
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <f>MATCH(H16,$A$2:$A$60,0)</f>
+        <v>14</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ca="1" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Rescue team</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Rescue squad 3</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="5"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(15), "Rescue squad 4", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(10), new Name(14)));</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -4150,13 +4814,55 @@
       <c r="D17">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="G17">
+        <v>1016</v>
+      </c>
+      <c r="H17">
+        <v>1021</v>
+      </c>
+      <c r="I17">
+        <f>MATCH(G17,$A$2:$A$60,0)</f>
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <f>MATCH(H17,$A$2:$A$60,0)</f>
+        <v>15</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Rescue team</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Rescue squad 4</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="5"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(16), "Rescue s1 officer", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(10), new Name(15)));</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -4164,13 +4870,55 @@
       <c r="D18">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="G18">
+        <v>1018</v>
+      </c>
+      <c r="H18">
+        <v>1022</v>
+      </c>
+      <c r="I18">
+        <f>MATCH(G18,$A$2:$A$60,0)</f>
+        <v>12</v>
+      </c>
+      <c r="J18">
+        <f>MATCH(H18,$A$2:$A$60,0)</f>
+        <v>16</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ca="1" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Rescue squad 1</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Rescue s1 officer</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="5"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(17), "Rescue s2 officer", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(12), new Name(16)));</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -4178,13 +4926,55 @@
       <c r="D19">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="G19">
+        <v>1018</v>
+      </c>
+      <c r="H19">
+        <v>1029</v>
+      </c>
+      <c r="I19">
+        <f>MATCH(G19,$A$2:$A$60,0)</f>
+        <v>12</v>
+      </c>
+      <c r="J19">
+        <f>MATCH(H19,$A$2:$A$60,0)</f>
+        <v>23</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ca="1" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Rescue squad 1</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Rescue s1 specialists</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="5"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(18), "Rescue s3 officer", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(12), new Name(23)));</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -4192,13 +4982,55 @@
       <c r="D20">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="G20">
+        <v>1019</v>
+      </c>
+      <c r="H20">
+        <v>1023</v>
+      </c>
+      <c r="I20">
+        <f>MATCH(G20,$A$2:$A$60,0)</f>
+        <v>13</v>
+      </c>
+      <c r="J20">
+        <f>MATCH(H20,$A$2:$A$60,0)</f>
+        <v>17</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ca="1" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Rescue squad 2</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Rescue s2 officer</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="5"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(19), "Rescue s4 officer", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(13), new Name(17)));</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -4206,13 +5038,55 @@
       <c r="D21">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E21">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>1019</v>
+      </c>
+      <c r="H21">
+        <v>1027</v>
+      </c>
+      <c r="I21">
+        <f>MATCH(G21,$A$2:$A$60,0)</f>
+        <v>13</v>
+      </c>
+      <c r="J21">
+        <f>MATCH(H21,$A$2:$A$60,0)</f>
+        <v>21</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ca="1" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Rescue squad 2</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Rescue s2 specialists</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="5"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(20), "Rescue s4 specialists", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(13), new Name(21)));</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -4220,13 +5094,55 @@
       <c r="D22">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E22">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="G22">
+        <v>1020</v>
+      </c>
+      <c r="H22">
+        <v>1024</v>
+      </c>
+      <c r="I22">
+        <f>MATCH(G22,$A$2:$A$60,0)</f>
+        <v>14</v>
+      </c>
+      <c r="J22">
+        <f>MATCH(H22,$A$2:$A$60,0)</f>
+        <v>18</v>
+      </c>
+      <c r="K22">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="L22">
+        <f t="shared" ca="1" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Rescue squad 3</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Rescue s3 officer</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="5"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(21), "Rescue s2 specialists", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(14), new Name(18)));</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -4234,13 +5150,55 @@
       <c r="D23">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="G23">
+        <v>1020</v>
+      </c>
+      <c r="H23">
+        <v>1028</v>
+      </c>
+      <c r="I23">
+        <f>MATCH(G23,$A$2:$A$60,0)</f>
+        <v>14</v>
+      </c>
+      <c r="J23">
+        <f>MATCH(H23,$A$2:$A$60,0)</f>
+        <v>22</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="L23">
+        <f t="shared" ca="1" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Rescue squad 3</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Rescue s3 specialists</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="5"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(22), "Rescue s3 specialists", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(14), new Name(22)));</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -4248,13 +5206,55 @@
       <c r="D24">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E24">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="G24">
+        <v>1021</v>
+      </c>
+      <c r="H24">
+        <v>1025</v>
+      </c>
+      <c r="I24">
+        <f>MATCH(G24,$A$2:$A$60,0)</f>
+        <v>15</v>
+      </c>
+      <c r="J24">
+        <f>MATCH(H24,$A$2:$A$60,0)</f>
+        <v>19</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ca="1" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Rescue squad 4</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Rescue s4 officer</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="5"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(23), "Rescue s1 specialists", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(15), new Name(19)));</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -4262,13 +5262,55 @@
       <c r="D25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="G25">
+        <v>1021</v>
+      </c>
+      <c r="H25">
+        <v>1026</v>
+      </c>
+      <c r="I25">
+        <f>MATCH(G25,$A$2:$A$60,0)</f>
+        <v>15</v>
+      </c>
+      <c r="J25">
+        <f>MATCH(H25,$A$2:$A$60,0)</f>
+        <v>20</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="L25">
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Rescue squad 4</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Rescue s4 specialists</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="5"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(24), "Medical team", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(15), new Name(20)));</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -4276,10 +5318,52 @@
       <c r="D26">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E26">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="G26">
+        <v>1030</v>
+      </c>
+      <c r="H26">
+        <v>1031</v>
+      </c>
+      <c r="I26">
+        <f>MATCH(G26,$A$2:$A$60,0)</f>
+        <v>24</v>
+      </c>
+      <c r="J26">
+        <f>MATCH(H26,$A$2:$A$60,0)</f>
+        <v>25</v>
+      </c>
+      <c r="K26">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="L26">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Medical team</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Medical team manager</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="5"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(25), "Medical team manager", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(24), new Name(25)));</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B27" t="s">
         <v>62</v>
@@ -4290,13 +5374,55 @@
       <c r="D27">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E27">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="G27">
+        <v>1030</v>
+      </c>
+      <c r="H27">
+        <v>1032</v>
+      </c>
+      <c r="I27">
+        <f>MATCH(G27,$A$2:$A$60,0)</f>
+        <v>24</v>
+      </c>
+      <c r="J27">
+        <f>MATCH(H27,$A$2:$A$60,0)</f>
+        <v>26</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="L27">
+        <f t="shared" ca="1" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Medical team</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Medical team specialist</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="5"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(26), "Medical team specialist", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(24), new Name(26)));</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -4304,13 +5430,55 @@
       <c r="D28">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E28">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="G28">
+        <v>1030</v>
+      </c>
+      <c r="H28">
+        <v>1033</v>
+      </c>
+      <c r="I28">
+        <f>MATCH(G28,$A$2:$A$60,0)</f>
+        <v>24</v>
+      </c>
+      <c r="J28">
+        <f>MATCH(H28,$A$2:$A$60,0)</f>
+        <v>27</v>
+      </c>
+      <c r="K28">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="L28">
+        <f t="shared" ca="1" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Medical team</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Medical team specialist</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="5"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(27), "Medical team specialist", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(24), new Name(27)));</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -4318,13 +5486,55 @@
       <c r="D29">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E29">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="G29">
+        <v>1034</v>
+      </c>
+      <c r="H29">
+        <v>1035</v>
+      </c>
+      <c r="I29">
+        <f>MATCH(G29,$A$2:$A$60,0)</f>
+        <v>28</v>
+      </c>
+      <c r="J29">
+        <f>MATCH(H29,$A$2:$A$60,0)</f>
+        <v>29</v>
+      </c>
+      <c r="K29">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="L29">
+        <f t="shared" ca="1" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Technical team</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Technical team manager</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="5"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(28), "Technical team", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(28), new Name(29)));</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -4332,13 +5542,55 @@
       <c r="D30">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E30">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="G30">
+        <v>1034</v>
+      </c>
+      <c r="H30">
+        <v>1036</v>
+      </c>
+      <c r="I30">
+        <f>MATCH(G30,$A$2:$A$60,0)</f>
+        <v>28</v>
+      </c>
+      <c r="J30">
+        <f>MATCH(H30,$A$2:$A$60,0)</f>
+        <v>30</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="L30">
+        <f t="shared" ca="1" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Technical team</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Structures specialist</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="5"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(29), "Technical team manager", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(28), new Name(30)));</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -4346,13 +5598,55 @@
       <c r="D31">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E31">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="G31">
+        <v>1034</v>
+      </c>
+      <c r="H31">
+        <v>1037</v>
+      </c>
+      <c r="I31">
+        <f>MATCH(G31,$A$2:$A$60,0)</f>
+        <v>28</v>
+      </c>
+      <c r="J31">
+        <f>MATCH(H31,$A$2:$A$60,0)</f>
+        <v>31</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="L31">
+        <f t="shared" ca="1" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Technical team</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Haz Mat specialist</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="5"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(30), "Structures specialist", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(28), new Name(31)));</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -4360,13 +5654,55 @@
       <c r="D32">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E32">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="G32">
+        <v>1034</v>
+      </c>
+      <c r="H32">
+        <v>1038</v>
+      </c>
+      <c r="I32">
+        <f>MATCH(G32,$A$2:$A$60,0)</f>
+        <v>28</v>
+      </c>
+      <c r="J32">
+        <f>MATCH(H32,$A$2:$A$60,0)</f>
+        <v>32</v>
+      </c>
+      <c r="K32">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="L32">
+        <f t="shared" ca="1" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Technical team</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Heavy rigging &amp; equipment specialist</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="5"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(31), "Haz Mat specialist", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(28), new Name(32)));</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -4374,13 +5710,55 @@
       <c r="D33">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E33">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="G33">
+        <v>1034</v>
+      </c>
+      <c r="H33">
+        <v>1039</v>
+      </c>
+      <c r="I33">
+        <f>MATCH(G33,$A$2:$A$60,0)</f>
+        <v>28</v>
+      </c>
+      <c r="J33">
+        <f>MATCH(H33,$A$2:$A$60,0)</f>
+        <v>33</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="L33">
+        <f t="shared" ca="1" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Technical team</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Communications specialist</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="5"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(32), "Heavy rigging &amp; equipment specialist", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(28), new Name(33)));</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -4388,8 +5766,1509 @@
       <c r="D34">
         <v>24</v>
       </c>
+      <c r="E34">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="G34">
+        <v>1034</v>
+      </c>
+      <c r="H34">
+        <v>1040</v>
+      </c>
+      <c r="I34">
+        <f>MATCH(G34,$A$2:$A$60,0)</f>
+        <v>28</v>
+      </c>
+      <c r="J34">
+        <f>MATCH(H34,$A$2:$A$60,0)</f>
+        <v>34</v>
+      </c>
+      <c r="K34">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="L34">
+        <f t="shared" ca="1" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Technical team</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Logistics specialist</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="5"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(33), "Communications specialist", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(28), new Name(34)));</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>1040</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>24</v>
+      </c>
+      <c r="E35">
+        <f>E34+1</f>
+        <v>34</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" si="5"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(34), "Logistics specialist", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+    </row>
+    <row r="63" spans="15:15" x14ac:dyDescent="0.35">
+      <c r="O63" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33F2739-4EDB-40BD-B73D-D2D93A74DEA5}">
+  <dimension ref="A1:Q28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1159</v>
+      </c>
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1159</v>
+      </c>
+      <c r="H2">
+        <v>1160</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I11" si="0">MATCH(G2,$A$2:$A$26,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J11" si="1">MATCH(H2,$A$2:$A$26,0)</f>
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:K11" ca="1" si="2">OFFSET($E$1,I2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:L11" ca="1" si="3">OFFSET($E$1,J2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="M2" t="str">
+        <f t="shared" ref="M2:M11" ca="1" si="4">OFFSET($B$1,I2,0)</f>
+        <v>Incident</v>
+      </c>
+      <c r="N2" t="str">
+        <f t="shared" ref="N2:N11" ca="1" si="5">OFFSET($B$1,J2,0)</f>
+        <v>Task Force Leaders</v>
+      </c>
+      <c r="O2" t="str">
+        <f>"allnames.add(new MessagingNamespace.MessagingName(new Name("&amp;E2&amp;"), """&amp;B2&amp;""", MessagingNamespace.MessagingNameType."&amp;IF(C2=0, "Administrative","Incident")&amp;"));"</f>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(1), "Incident", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q2" t="str">
+        <f ca="1">"allRelationships.add(new Tuple2&lt;&gt;(new Name("&amp;K2&amp;"), new Name("&amp;L2&amp;")));"</f>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(1), new Name(2)));</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1160</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E26" si="6">E2+1</f>
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>1159</v>
+      </c>
+      <c r="H3">
+        <v>1161</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Incident</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Safety Officers</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" ref="O3:O26" si="7">"allnames.add(new MessagingNamespace.MessagingName(new Name("&amp;E3&amp;"), """&amp;B3&amp;""", MessagingNamespace.MessagingNameType."&amp;IF(C3=0, "Administrative","Incident")&amp;"));"</f>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(2), "Task Force Leaders", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q3" t="str">
+        <f ca="1">"allRelationships.add(new Tuple2&lt;&gt;(new Name("&amp;K3&amp;"), new Name("&amp;L3&amp;")));"</f>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(1), new Name(3)));</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1161</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>1159</v>
+      </c>
+      <c r="H4">
+        <v>1162</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Incident</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Search Team</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="7"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(3), "Safety Officers", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q4" t="str">
+        <f ca="1">"allRelationships.add(new Tuple2&lt;&gt;(new Name("&amp;K4&amp;"), new Name("&amp;L4&amp;")));"</f>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(1), new Name(4)));</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1162</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>1159</v>
+      </c>
+      <c r="H5">
+        <v>1166</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Incident</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Rescue Teams</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="7"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(4), "Search Team", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q5" t="str">
+        <f ca="1">"allRelationships.add(new Tuple2&lt;&gt;(new Name("&amp;K5&amp;"), new Name("&amp;L5&amp;")));"</f>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(1), new Name(8)));</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1163</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>1159</v>
+      </c>
+      <c r="H6">
+        <v>1174</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ca="1" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Incident</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Haz Mat Team</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="7"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(5), "Search Team Managers", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q6" t="str">
+        <f ca="1">"allRelationships.add(new Tuple2&lt;&gt;(new Name("&amp;K6&amp;"), new Name("&amp;L6&amp;")));"</f>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(1), new Name(16)));</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1164</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>1159</v>
+      </c>
+      <c r="H7">
+        <v>1178</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ca="1" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Incident</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Medical Team</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="7"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(6), "Canine Search Specialist", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q7" t="str">
+        <f ca="1">"allRelationships.add(new Tuple2&lt;&gt;(new Name("&amp;K7&amp;"), new Name("&amp;L7&amp;")));"</f>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(1), new Name(20)));</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1165</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>1159</v>
+      </c>
+      <c r="H8">
+        <v>1181</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ca="1" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Incident</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Logistic Team</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="7"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(7), "Technical Search Specialist", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q8" t="str">
+        <f ca="1">"allRelationships.add(new Tuple2&lt;&gt;(new Name("&amp;K8&amp;"), new Name("&amp;L8&amp;")));"</f>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(1), new Name(23)));</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1166</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>1162</v>
+      </c>
+      <c r="H9">
+        <v>1163</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Search Team</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Search Team Managers</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="7"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(8), "Rescue Teams", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q9" t="str">
+        <f ca="1">"allRelationships.add(new Tuple2&lt;&gt;(new Name("&amp;K9&amp;"), new Name("&amp;L9&amp;")));"</f>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(4), new Name(5)));</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1167</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>1162</v>
+      </c>
+      <c r="H10">
+        <v>1164</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Search Team</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Canine Search Specialist</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="7"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(9), "Rescue Team Managers", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q10" t="str">
+        <f ca="1">"allRelationships.add(new Tuple2&lt;&gt;(new Name("&amp;K10&amp;"), new Name("&amp;L10&amp;")));"</f>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(4), new Name(6)));</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1168</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>1162</v>
+      </c>
+      <c r="H11">
+        <v>1165</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Search Team</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Technical Search Specialist</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="7"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(10), "Rescue Squad 1", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q11" t="str">
+        <f ca="1">"allRelationships.add(new Tuple2&lt;&gt;(new Name("&amp;K11&amp;"), new Name("&amp;L11&amp;")));"</f>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(4), new Name(7)));</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1169</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>1166</v>
+      </c>
+      <c r="H12">
+        <v>1167</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ref="I12:I30" si="8">MATCH(G12,$A$2:$A$26,0)</f>
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12:J30" si="9">MATCH(H12,$A$2:$A$26,0)</f>
+        <v>9</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ref="K12:K30" ca="1" si="10">OFFSET($E$1,I12,0)</f>
+        <v>8</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ref="L12:L30" ca="1" si="11">OFFSET($E$1,J12,0)</f>
+        <v>9</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" ref="M12:M30" ca="1" si="12">OFFSET($B$1,I12,0)</f>
+        <v>Rescue Teams</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" ref="N12:N30" ca="1" si="13">OFFSET($B$1,J12,0)</f>
+        <v>Rescue Team Managers</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="7"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(11), "Rescue Squad 2", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q12" t="str">
+        <f ca="1">"allRelationships.add(new Tuple2&lt;&gt;(new Name("&amp;K12&amp;"), new Name("&amp;L12&amp;")));"</f>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(8), new Name(9)));</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>1170</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>1166</v>
+      </c>
+      <c r="H13">
+        <v>1168</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ca="1" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ca="1" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Rescue Teams</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Rescue Squad 1</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="7"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(12), "Rescue Squad 1 Officer", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q13" t="str">
+        <f ca="1">"allRelationships.add(new Tuple2&lt;&gt;(new Name("&amp;K13&amp;"), new Name("&amp;L13&amp;")));"</f>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(8), new Name(10)));</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1171</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <v>1166</v>
+      </c>
+      <c r="H14">
+        <v>1169</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ca="1" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ca="1" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Rescue Teams</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Rescue Squad 2</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="7"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(13), "Rescue Squad 2 Officer", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q14" t="str">
+        <f ca="1">"allRelationships.add(new Tuple2&lt;&gt;(new Name("&amp;K14&amp;"), new Name("&amp;L14&amp;")));"</f>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(8), new Name(11)));</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1172</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="G15">
+        <v>1168</v>
+      </c>
+      <c r="H15">
+        <v>1170</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ca="1" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="L15">
+        <f t="shared" ca="1" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Rescue Squad 1</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Rescue Squad 1 Officer</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="7"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(14), "Rescue Squad 2 Specialists", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q15" t="str">
+        <f ca="1">"allRelationships.add(new Tuple2&lt;&gt;(new Name("&amp;K15&amp;"), new Name("&amp;L15&amp;")));"</f>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(10), new Name(12)));</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1173</v>
+      </c>
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <v>1168</v>
+      </c>
+      <c r="H16">
+        <v>1173</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ca="1" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ca="1" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Rescue Squad 1</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Rescue Squad 1 Specialists</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="7"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(15), "Rescue Squad 1 Specialists", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q16" t="str">
+        <f ca="1">"allRelationships.add(new Tuple2&lt;&gt;(new Name("&amp;K16&amp;"), new Name("&amp;L16&amp;")));"</f>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(10), new Name(15)));</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1174</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="G17">
+        <v>1169</v>
+      </c>
+      <c r="H17">
+        <v>1171</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ca="1" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ca="1" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Rescue Squad 2</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Rescue Squad 2 Officer</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="7"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(16), "Haz Mat Team", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q17" t="str">
+        <f ca="1">"allRelationships.add(new Tuple2&lt;&gt;(new Name("&amp;K17&amp;"), new Name("&amp;L17&amp;")));"</f>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(11), new Name(13)));</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1175</v>
+      </c>
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="G18">
+        <v>1169</v>
+      </c>
+      <c r="H18">
+        <v>1172</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ca="1" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ca="1" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Rescue Squad 2</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Rescue Squad 2 Specialists</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="7"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(17), "Haz Mat Managers", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q18" t="str">
+        <f ca="1">"allRelationships.add(new Tuple2&lt;&gt;(new Name("&amp;K18&amp;"), new Name("&amp;L18&amp;")));"</f>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(11), new Name(14)));</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1176</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="G19">
+        <v>1174</v>
+      </c>
+      <c r="H19">
+        <v>1175</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ca="1" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ca="1" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Haz Mat Team</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Haz Mat Managers</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="7"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(18), "Haz Mat Specialists", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q19" t="str">
+        <f ca="1">"allRelationships.add(new Tuple2&lt;&gt;(new Name("&amp;K19&amp;"), new Name("&amp;L19&amp;")));"</f>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(16), new Name(17)));</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1177</v>
+      </c>
+      <c r="B20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="G20">
+        <v>1174</v>
+      </c>
+      <c r="H20">
+        <v>1176</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ca="1" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ca="1" si="11"/>
+        <v>18</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Haz Mat Team</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Haz Mat Specialists</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="7"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(19), "Heavy Equipment Rigging Specialists", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q20" t="str">
+        <f ca="1">"allRelationships.add(new Tuple2&lt;&gt;(new Name("&amp;K20&amp;"), new Name("&amp;L20&amp;")));"</f>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(16), new Name(18)));</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>1178</v>
+      </c>
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>1174</v>
+      </c>
+      <c r="H21">
+        <v>1177</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ca="1" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ca="1" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Haz Mat Team</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Heavy Equipment Rigging Specialists</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="7"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(20), "Medical Team", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q21" t="str">
+        <f ca="1">"allRelationships.add(new Tuple2&lt;&gt;(new Name("&amp;K21&amp;"), new Name("&amp;L21&amp;")));"</f>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(16), new Name(19)));</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>1179</v>
+      </c>
+      <c r="B22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="G22">
+        <v>1178</v>
+      </c>
+      <c r="H22">
+        <v>1179</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="K22">
+        <f t="shared" ca="1" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="L22">
+        <f t="shared" ca="1" si="11"/>
+        <v>21</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Medical Team</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Medical Managers</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="7"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(21), "Medical Managers", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q22" t="str">
+        <f ca="1">"allRelationships.add(new Tuple2&lt;&gt;(new Name("&amp;K22&amp;"), new Name("&amp;L22&amp;")));"</f>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(20), new Name(21)));</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>1180</v>
+      </c>
+      <c r="B23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="G23">
+        <v>1178</v>
+      </c>
+      <c r="H23">
+        <v>1180</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ca="1" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="L23">
+        <f t="shared" ca="1" si="11"/>
+        <v>22</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Medical Team</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Medical Specialists</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="7"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(22), "Medical Specialists", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q23" t="str">
+        <f ca="1">"allRelationships.add(new Tuple2&lt;&gt;(new Name("&amp;K23&amp;"), new Name("&amp;L23&amp;")));"</f>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(20), new Name(22)));</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>1181</v>
+      </c>
+      <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>26</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="G24">
+        <v>1181</v>
+      </c>
+      <c r="H24">
+        <v>1182</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ca="1" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ca="1" si="11"/>
+        <v>24</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Logistic Team</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Logistic Team Managers</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="7"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(23), "Logistic Team", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q24" t="str">
+        <f ca="1">"allRelationships.add(new Tuple2&lt;&gt;(new Name("&amp;K24&amp;"), new Name("&amp;L24&amp;")));"</f>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(23), new Name(24)));</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>1182</v>
+      </c>
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>26</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="G25">
+        <v>1181</v>
+      </c>
+      <c r="H25">
+        <v>1183</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ca="1" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="L25">
+        <f t="shared" ca="1" si="11"/>
+        <v>25</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>Logistic Team</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>Logistic Team Specialists</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="7"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(24), "Logistic Team Managers", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+      <c r="Q25" t="str">
+        <f ca="1">"allRelationships.add(new Tuple2&lt;&gt;(new Name("&amp;K25&amp;"), new Name("&amp;L25&amp;")));"</f>
+        <v>allRelationships.add(new Tuple2&lt;&gt;(new Name(23), new Name(25)));</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>1183</v>
+      </c>
+      <c r="B26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>26</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="7"/>
+        <v>allnames.add(new MessagingNamespace.MessagingName(new Name(25), "Logistic Team Specialists", MessagingNamespace.MessagingNameType.Incident));</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="O28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>